--- a/examples/oucru/oucru-06dx/resources/outputs/templates/ccfgs_06dx_data_fixed.xlsx
+++ b/examples/oucru/oucru-06dx/resources/outputs/templates/ccfgs_06dx_data_fixed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbit/Desktop/repositories/github/datablend/examples/oucru/oucru-06dx/resources/outputs/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbit/Desktop/repositories/github/datablend/main/examples/oucru/oucru-06dx/resources/outputs/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DD802C-1BDD-394A-8E44-E5DCC4512C25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5B1038-4E74-FD4A-A355-817A9CA760B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35840" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCR" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="713">
   <si>
     <t>from_name</t>
   </si>
@@ -487,9 +487,6 @@
     <t>fatigue</t>
   </si>
   <si>
-    <t>lostappetite</t>
-  </si>
-  <si>
     <t>vomiting</t>
   </si>
   <si>
@@ -535,9 +532,6 @@
     <t>{'V_1': 2, 'V_2': 1, 'V_3': 3}</t>
   </si>
   <si>
-    <t>{'V_0': 2, 'V_1': 1, 'V_2': 9}</t>
-  </si>
-  <si>
     <t>{'V_1': 1, 'V_2': 2, 'V_3': 3}</t>
   </si>
   <si>
@@ -1849,9 +1843,6 @@
     <t>bleeding_other</t>
   </si>
   <si>
-    <t>liver_palpation</t>
-  </si>
-  <si>
     <t>spleen_palpation</t>
   </si>
   <si>
@@ -1957,9 +1948,6 @@
     <t>pericardial_effusion</t>
   </si>
   <si>
-    <t>{True: 1, False: 2, None: 9, None: None}</t>
-  </si>
-  <si>
     <t>bladder_thickening</t>
   </si>
   <si>
@@ -2041,9 +2029,6 @@
     <t>event_onset</t>
   </si>
   <si>
-    <t>lostappetite_duration</t>
-  </si>
-  <si>
     <t>fatigue_duration</t>
   </si>
   <si>
@@ -2077,12 +2062,6 @@
     <t>muscle_pain_duration</t>
   </si>
   <si>
-    <t>skin_bleeding_duration</t>
-  </si>
-  <si>
-    <t>mucosal_bleeding_duration</t>
-  </si>
-  <si>
     <t>vomiting_level</t>
   </si>
   <si>
@@ -2180,6 +2159,27 @@
   </si>
   <si>
     <t>lymphocytes_percent</t>
+  </si>
+  <si>
+    <t>appetite_lost</t>
+  </si>
+  <si>
+    <t>appetite_lost_duration</t>
+  </si>
+  <si>
+    <t>bleeding_skin_duration</t>
+  </si>
+  <si>
+    <t>bleeding_mucosal_duration</t>
+  </si>
+  <si>
+    <t>{True: 1, False: 2, None: 9}</t>
+  </si>
+  <si>
+    <t>spleen_palpation_size</t>
+  </si>
+  <si>
+    <t>{True: 1, False: 2, None:9}</t>
   </si>
 </sst>
 </file>
@@ -2635,7 +2635,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -2646,7 +2646,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -3172,7 +3172,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -3183,7 +3183,7 @@
         <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -3194,10 +3194,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -3208,10 +3208,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C4" t="s">
         <v>98</v>
@@ -3222,16 +3222,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -3239,10 +3239,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B6" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
@@ -3251,7 +3251,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -3259,16 +3259,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B7" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="C7" t="s">
         <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -3276,16 +3276,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B8" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="C8" t="s">
         <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -3293,10 +3293,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B9" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="C9" t="s">
         <v>65</v>
@@ -3305,7 +3305,7 @@
         <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -3313,10 +3313,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C10" t="s">
         <v>65</v>
@@ -3325,7 +3325,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -3333,10 +3333,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C11" t="s">
         <v>65</v>
@@ -3350,10 +3350,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C12" t="s">
         <v>65</v>
@@ -3367,10 +3367,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C13" t="s">
         <v>65</v>
@@ -3384,10 +3384,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C14" t="s">
         <v>65</v>
@@ -3401,16 +3401,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B15" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C15" t="s">
         <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -3418,10 +3418,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B16" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C16" t="s">
         <v>65</v>
@@ -3435,10 +3435,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C17" t="s">
         <v>65</v>
@@ -3452,10 +3452,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B18" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C18" t="s">
         <v>65</v>
@@ -3469,10 +3469,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C19" t="s">
         <v>65</v>
@@ -3486,10 +3486,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B20" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C20" t="s">
         <v>65</v>
@@ -3503,10 +3503,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B21" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C21" t="s">
         <v>65</v>
@@ -3520,10 +3520,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B22" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C22" t="s">
         <v>65</v>
@@ -3537,10 +3537,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B23" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C23" t="s">
         <v>65</v>
@@ -3636,7 +3636,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -3647,7 +3647,7 @@
         <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -3658,16 +3658,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C3" t="s">
         <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -3675,13 +3675,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -3689,10 +3689,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
@@ -3703,16 +3703,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -3720,16 +3720,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -3737,10 +3737,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C8" t="s">
         <v>98</v>
@@ -3751,10 +3751,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C9" t="s">
         <v>64</v>
@@ -3765,16 +3765,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C10" t="s">
         <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -3782,16 +3782,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C11" t="s">
         <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -3799,10 +3799,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B12" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C12" t="s">
         <v>64</v>
@@ -3813,10 +3813,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C13" t="s">
         <v>64</v>
@@ -3827,10 +3827,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C14" t="s">
         <v>65</v>
@@ -3844,10 +3844,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B15" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C15" t="s">
         <v>65</v>
@@ -3861,16 +3861,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B16" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C16" t="s">
         <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -3878,16 +3878,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B17" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C17" t="s">
         <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -3895,16 +3895,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C18" t="s">
         <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -3912,16 +3912,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B19" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C19" t="s">
         <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -3929,16 +3929,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C20" t="s">
         <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -3946,10 +3946,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C21" t="s">
         <v>65</v>
@@ -3963,16 +3963,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B22" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C22" t="s">
         <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -3980,10 +3980,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C23" t="s">
         <v>64</v>
@@ -4062,7 +4062,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -4073,7 +4073,7 @@
         <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -4126,10 +4126,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B6" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
@@ -4138,15 +4138,15 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B7" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
@@ -4155,18 +4155,18 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -4174,10 +4174,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C9" t="s">
         <v>98</v>
@@ -4188,13 +4188,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -4202,13 +4202,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -4216,13 +4216,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -4230,13 +4230,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -4244,13 +4244,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -4258,13 +4258,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -4272,13 +4272,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -4286,10 +4286,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C17" t="s">
         <v>98</v>
@@ -4300,10 +4300,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B18" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C18" t="s">
         <v>98</v>
@@ -4314,13 +4314,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B19" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -4328,13 +4328,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B20" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -4342,13 +4342,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B21" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -4356,10 +4356,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B22" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C22" t="s">
         <v>98</v>
@@ -4370,13 +4370,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B23" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -4384,10 +4384,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B24" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C24" t="s">
         <v>65</v>
@@ -4401,16 +4401,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B25" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C25" t="s">
         <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -4418,16 +4418,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B26" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C26" t="s">
         <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -4435,10 +4435,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B27" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C27" t="s">
         <v>65</v>
@@ -4452,16 +4452,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B28" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C28" t="s">
         <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -4469,10 +4469,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B29" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C29" t="s">
         <v>65</v>
@@ -4486,10 +4486,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B30" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C30" t="s">
         <v>64</v>
@@ -4500,16 +4500,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B31" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C31" t="s">
         <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -4517,10 +4517,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B32" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C32" t="s">
         <v>65</v>
@@ -4534,10 +4534,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B33" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C33" t="s">
         <v>65</v>
@@ -4551,10 +4551,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B34" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C34" t="s">
         <v>65</v>
@@ -4568,10 +4568,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B35" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C35" t="s">
         <v>65</v>
@@ -4641,7 +4641,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -4652,7 +4652,7 @@
         <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -4663,16 +4663,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C3" t="s">
         <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -4680,10 +4680,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C4" t="s">
         <v>98</v>
@@ -4697,7 +4697,7 @@
         <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
@@ -4708,10 +4708,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
@@ -4725,16 +4725,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -4809,7 +4809,7 @@
         <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -4820,10 +4820,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -4834,10 +4834,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
@@ -4851,10 +4851,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
@@ -4868,10 +4868,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
@@ -4882,10 +4882,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
@@ -4899,10 +4899,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C8" t="s">
         <v>64</v>
@@ -4981,7 +4981,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -4989,10 +4989,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C2" t="s">
         <v>98</v>
@@ -5006,7 +5006,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -5017,10 +5017,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -5029,24 +5029,24 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5054,16 +5054,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C6" t="s">
         <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -5071,30 +5071,30 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C7" t="s">
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B8" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -5173,7 +5173,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -5184,7 +5184,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -5195,10 +5195,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -5207,24 +5207,24 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B4" t="s">
+        <v>689</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>687</v>
+      </c>
+      <c r="E4" t="s">
         <v>509</v>
-      </c>
-      <c r="B4" t="s">
-        <v>696</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>694</v>
-      </c>
-      <c r="E4" t="s">
-        <v>511</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -5232,25 +5232,25 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B5" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="E5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -5323,7 +5323,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -5334,7 +5334,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -5345,10 +5345,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -5359,16 +5359,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C4" t="s">
         <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -5376,62 +5376,62 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C6" t="s">
         <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -5439,10 +5439,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C8" t="s">
         <v>64</v>
@@ -5453,10 +5453,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B9" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C9" t="s">
         <v>65</v>
@@ -5508,7 +5508,7 @@
     <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5538,7 +5538,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -5546,16 +5546,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C2" t="s">
         <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5566,7 +5566,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -5577,10 +5577,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -5589,15 +5589,15 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C5" t="s">
         <v>98</v>
@@ -5606,21 +5606,21 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B6" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -5628,19 +5628,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -5648,39 +5648,39 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B8" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B9" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C9" t="s">
         <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -5688,16 +5688,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C10" t="s">
         <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -5705,10 +5705,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C11" t="s">
         <v>64</v>
@@ -5719,16 +5719,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B12" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C12" t="s">
         <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -5736,16 +5736,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C13" t="s">
         <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -5753,13 +5753,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B14" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -5827,7 +5827,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -5838,7 +5838,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -5849,10 +5849,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -5863,10 +5863,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C4" t="s">
         <v>98</v>
@@ -5877,10 +5877,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C5" t="s">
         <v>98</v>
@@ -5891,16 +5891,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -5933,7 +5933,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5976,7 +5976,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -5987,7 +5987,7 @@
         <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -6027,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -6035,13 +6035,13 @@
         <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E5" t="s">
         <v>97</v>
@@ -6106,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -6205,12 +6205,15 @@
         <v>86</v>
       </c>
       <c r="I15" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
       <c r="B16" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C16" t="s">
         <v>66</v>
@@ -6278,7 +6281,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -6289,7 +6292,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -6300,10 +6303,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -6312,257 +6315,257 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="E4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="E5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C6" t="s">
         <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="E6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C7" t="s">
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="E7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C8" t="s">
         <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="E8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B9" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C9" t="s">
         <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="E9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B10" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C10" t="s">
         <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="E10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C11" t="s">
         <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="E11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C12" t="s">
         <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="E12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B13" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C13" t="s">
         <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="E13" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E14" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -6626,7 +6629,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -6637,7 +6640,7 @@
         <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -6648,10 +6651,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -6662,10 +6665,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C4" t="s">
         <v>98</v>
@@ -6676,22 +6679,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B5" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -6720,7 +6723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -6752,7 +6755,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -6760,10 +6763,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -6774,10 +6777,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -6788,16 +6791,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -6805,10 +6808,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
@@ -6819,10 +6822,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C6" t="s">
         <v>64</v>
@@ -6833,10 +6836,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C7" t="s">
         <v>64</v>
@@ -6854,8 +6857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6863,7 +6866,7 @@
     <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -6898,7 +6901,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -6909,7 +6912,7 @@
         <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -6929,7 +6932,7 @@
         <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -6977,7 +6980,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -6988,13 +6991,13 @@
         <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -7014,7 +7017,7 @@
         <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -7025,13 +7028,13 @@
         <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C9" t="s">
         <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -7051,7 +7054,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -7062,13 +7065,13 @@
         <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C11" t="s">
         <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -7079,13 +7082,16 @@
         <v>109</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>706</v>
       </c>
       <c r="C12" t="s">
         <v>65</v>
       </c>
       <c r="D12" t="s">
         <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>653</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -7096,13 +7102,13 @@
         <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>666</v>
+        <v>707</v>
       </c>
       <c r="C13" t="s">
         <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -7113,7 +7119,7 @@
         <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
         <v>65</v>
@@ -7122,7 +7128,7 @@
         <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -7133,13 +7139,13 @@
         <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C15" t="s">
         <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -7150,16 +7156,16 @@
         <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
         <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>712</v>
       </c>
       <c r="E16" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -7170,13 +7176,13 @@
         <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C17" t="s">
         <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -7187,16 +7193,16 @@
         <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C18" t="s">
         <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>164</v>
+        <v>710</v>
       </c>
       <c r="E18" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -7207,13 +7213,13 @@
         <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C19" t="s">
         <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -7224,7 +7230,7 @@
         <v>117</v>
       </c>
       <c r="B20" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C20" t="s">
         <v>65</v>
@@ -7233,7 +7239,7 @@
         <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -7244,13 +7250,13 @@
         <v>118</v>
       </c>
       <c r="B21" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="C21" t="s">
         <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -7261,7 +7267,7 @@
         <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22" t="s">
         <v>65</v>
@@ -7270,7 +7276,7 @@
         <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -7281,13 +7287,13 @@
         <v>120</v>
       </c>
       <c r="B23" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="C23" t="s">
         <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -7298,7 +7304,7 @@
         <v>121</v>
       </c>
       <c r="B24" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C24" t="s">
         <v>65</v>
@@ -7307,7 +7313,7 @@
         <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -7318,13 +7324,13 @@
         <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="C25" t="s">
         <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -7335,7 +7341,7 @@
         <v>123</v>
       </c>
       <c r="B26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C26" t="s">
         <v>65</v>
@@ -7344,7 +7350,7 @@
         <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -7355,13 +7361,13 @@
         <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="C27" t="s">
         <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -7372,7 +7378,7 @@
         <v>125</v>
       </c>
       <c r="B28" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C28" t="s">
         <v>65</v>
@@ -7381,7 +7387,7 @@
         <v>67</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -7392,13 +7398,13 @@
         <v>126</v>
       </c>
       <c r="B29" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C29" t="s">
         <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -7409,7 +7415,7 @@
         <v>127</v>
       </c>
       <c r="B30" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C30" t="s">
         <v>65</v>
@@ -7418,7 +7424,7 @@
         <v>67</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -7429,13 +7435,13 @@
         <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C31" t="s">
         <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -7446,7 +7452,7 @@
         <v>129</v>
       </c>
       <c r="B32" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C32" t="s">
         <v>65</v>
@@ -7455,7 +7461,7 @@
         <v>67</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -7466,13 +7472,13 @@
         <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C33" t="s">
         <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -7483,16 +7489,16 @@
         <v>131</v>
       </c>
       <c r="B34" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C34" t="s">
         <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>164</v>
+        <v>712</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -7503,13 +7509,13 @@
         <v>132</v>
       </c>
       <c r="B35" t="s">
-        <v>678</v>
+        <v>708</v>
       </c>
       <c r="C35" t="s">
         <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -7520,16 +7526,16 @@
         <v>133</v>
       </c>
       <c r="B36" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C36" t="s">
         <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>164</v>
+        <v>712</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -7540,13 +7546,13 @@
         <v>134</v>
       </c>
       <c r="B37" t="s">
-        <v>679</v>
+        <v>709</v>
       </c>
       <c r="C37" t="s">
         <v>65</v>
       </c>
       <c r="D37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -7557,13 +7563,13 @@
         <v>135</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C38" t="s">
         <v>65</v>
       </c>
       <c r="D38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -7574,7 +7580,7 @@
         <v>136</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C39" t="s">
         <v>65</v>
@@ -7591,7 +7597,7 @@
         <v>137</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C40" t="s">
         <v>64</v>
@@ -7605,7 +7611,7 @@
         <v>138</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C41" t="s">
         <v>65</v>
@@ -7622,7 +7628,7 @@
         <v>139</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C42" t="s">
         <v>64</v>
@@ -7636,7 +7642,7 @@
         <v>140</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C43" t="s">
         <v>65</v>
@@ -7653,7 +7659,7 @@
         <v>141</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C44" t="s">
         <v>64</v>
@@ -7673,7 +7679,7 @@
         <v>65</v>
       </c>
       <c r="D45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -7697,8 +7703,11 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
       <c r="B47" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C47" t="s">
         <v>66</v>
@@ -7723,7 +7732,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7766,7 +7775,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -7777,7 +7786,7 @@
         <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -7788,142 +7797,142 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
         <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
         <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C7" t="s">
         <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E8" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s">
         <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -7931,16 +7940,16 @@
         <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C10" t="s">
         <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>593</v>
       </c>
       <c r="E10" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -7948,10 +7957,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C11" t="s">
         <v>64</v>
@@ -7962,10 +7971,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C12" t="s">
         <v>65</v>
@@ -7974,7 +7983,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -7982,10 +7991,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C13" t="s">
         <v>65</v>
@@ -7996,10 +8005,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s">
         <v>65</v>
@@ -8008,7 +8017,7 @@
         <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -8016,10 +8025,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C15" t="s">
         <v>65</v>
@@ -8028,7 +8037,7 @@
         <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -8036,10 +8045,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C16" t="s">
         <v>65</v>
@@ -8048,7 +8057,7 @@
         <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -8056,10 +8065,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C17" t="s">
         <v>65</v>
@@ -8068,7 +8077,7 @@
         <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -8076,10 +8085,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C18" t="s">
         <v>65</v>
@@ -8088,7 +8097,7 @@
         <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -8096,10 +8105,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C19" t="s">
         <v>65</v>
@@ -8108,7 +8117,7 @@
         <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -8116,10 +8125,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C20" t="s">
         <v>65</v>
@@ -8128,7 +8137,7 @@
         <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -8136,10 +8145,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C21" t="s">
         <v>65</v>
@@ -8148,7 +8157,7 @@
         <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -8156,19 +8165,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C22" t="s">
         <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E22" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -8176,16 +8185,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C23" t="s">
         <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -8193,10 +8202,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C24" t="s">
         <v>65</v>
@@ -8205,7 +8214,7 @@
         <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -8213,10 +8222,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C25" t="s">
         <v>65</v>
@@ -8227,10 +8236,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C26" t="s">
         <v>65</v>
@@ -8239,7 +8248,7 @@
         <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -8247,10 +8256,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C27" t="s">
         <v>65</v>
@@ -8259,7 +8268,7 @@
         <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -8267,10 +8276,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C28" t="s">
         <v>65</v>
@@ -8281,10 +8290,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B29" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C29" t="s">
         <v>65</v>
@@ -8293,7 +8302,7 @@
         <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -8301,10 +8310,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B30" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C30" t="s">
         <v>65</v>
@@ -8315,19 +8324,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B31" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C31" t="s">
         <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E31" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -8335,10 +8344,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B32" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C32" t="s">
         <v>65</v>
@@ -8352,19 +8361,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B33" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C33" t="s">
         <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E33" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -8372,19 +8381,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B34" t="s">
-        <v>602</v>
+        <v>677</v>
       </c>
       <c r="C34" t="s">
         <v>65</v>
       </c>
-      <c r="D34" t="s">
-        <v>595</v>
-      </c>
       <c r="E34" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -8392,19 +8398,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B35" t="s">
-        <v>603</v>
+        <v>711</v>
       </c>
       <c r="C35" t="s">
         <v>65</v>
       </c>
-      <c r="D35" t="s">
-        <v>595</v>
-      </c>
       <c r="E35" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -8412,16 +8415,16 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C36" t="s">
         <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -8429,10 +8432,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B37" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C37" t="s">
         <v>65</v>
@@ -8443,10 +8446,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C38" t="s">
         <v>65</v>
@@ -8457,10 +8460,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B39" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C39" t="s">
         <v>64</v>
@@ -8487,8 +8490,11 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
       <c r="B41" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C41" t="s">
         <v>66</v>
@@ -8556,7 +8562,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -8567,7 +8573,7 @@
         <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -8578,10 +8584,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -8592,10 +8598,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
@@ -8609,16 +8615,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -8626,10 +8632,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
@@ -8638,15 +8644,15 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B7" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
@@ -8660,10 +8666,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
@@ -8677,16 +8683,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B9" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C9" t="s">
         <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -8694,10 +8700,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C10" t="s">
         <v>65</v>
@@ -8711,10 +8717,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B11" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C11" t="s">
         <v>65</v>
@@ -8728,10 +8734,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B12" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C12" t="s">
         <v>65</v>
@@ -8745,10 +8751,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B13" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C13" t="s">
         <v>65</v>
@@ -8762,10 +8768,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B14" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C14" t="s">
         <v>65</v>
@@ -8779,10 +8785,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C15" t="s">
         <v>65</v>
@@ -8796,10 +8802,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C16" t="s">
         <v>66</v>
@@ -8810,10 +8816,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C17" t="s">
         <v>64</v>
@@ -8824,16 +8830,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C18" t="s">
         <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -8841,10 +8847,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C19" t="s">
         <v>66</v>
@@ -8853,15 +8859,15 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C20" t="s">
         <v>65</v>
@@ -8875,10 +8881,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C21" t="s">
         <v>65</v>
@@ -8892,10 +8898,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B22" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C22" t="s">
         <v>65</v>
@@ -8977,7 +8983,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -8988,7 +8994,7 @@
         <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -8999,16 +9005,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C3" t="s">
         <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -9016,10 +9022,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B4" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -9028,15 +9034,15 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
@@ -9050,10 +9056,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
@@ -9064,10 +9070,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
@@ -9081,16 +9087,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -9098,16 +9104,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C9" t="s">
         <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -9115,10 +9121,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C10" t="s">
         <v>64</v>
@@ -9129,10 +9135,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C11" t="s">
         <v>64</v>
@@ -9143,10 +9149,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C12" t="s">
         <v>64</v>
@@ -9157,10 +9163,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B13" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C13" t="s">
         <v>64</v>
@@ -9171,10 +9177,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C14" t="s">
         <v>64</v>
@@ -9185,10 +9191,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C15" t="s">
         <v>64</v>
@@ -9224,7 +9230,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9267,7 +9273,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -9278,7 +9284,7 @@
         <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -9289,10 +9295,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -9303,10 +9309,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -9317,10 +9323,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C5" t="s">
         <v>98</v>
@@ -9331,59 +9337,59 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C7" t="s">
         <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E8" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -9391,76 +9397,76 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
         <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
         <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
         <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C12" t="s">
         <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -9468,19 +9474,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B13" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="C13" t="s">
         <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E13" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -9488,19 +9494,19 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C14" t="s">
         <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E14" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -9511,16 +9517,16 @@
         <v>129</v>
       </c>
       <c r="B15" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C15" t="s">
         <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E15" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -9528,10 +9534,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B16" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C16" t="s">
         <v>64</v>
@@ -9542,19 +9548,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C17" t="s">
         <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E17" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -9562,19 +9568,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C18" t="s">
         <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E18" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -9582,19 +9588,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C19" t="s">
         <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E19" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -9602,19 +9608,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C20" t="s">
         <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E20" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -9622,19 +9628,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C21" t="s">
         <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E21" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -9642,19 +9648,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C22" t="s">
         <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E22" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -9662,19 +9668,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C23" t="s">
         <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -9682,19 +9688,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C24" t="s">
         <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E24" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -9702,19 +9708,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B25" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C25" t="s">
         <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E25" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -9722,10 +9728,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B26" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C26" t="s">
         <v>64</v>
@@ -9736,16 +9742,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B27" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C27" t="s">
         <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -9753,16 +9759,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B28" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C28" t="s">
         <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -9770,16 +9776,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B29" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C29" t="s">
         <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -9787,10 +9793,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C30" t="s">
         <v>65</v>
@@ -9801,16 +9807,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B31" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C31" t="s">
         <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -9818,10 +9824,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C32" t="s">
         <v>64</v>
@@ -9835,16 +9841,16 @@
         <v>111</v>
       </c>
       <c r="B33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C33" t="s">
         <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E33" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -9852,16 +9858,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B34" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="C34" t="s">
         <v>65</v>
       </c>
       <c r="E34" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -9872,16 +9878,16 @@
         <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
         <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E35" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -9889,16 +9895,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="C36" t="s">
         <v>65</v>
       </c>
       <c r="E36" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -9909,16 +9915,16 @@
         <v>115</v>
       </c>
       <c r="B37" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C37" t="s">
         <v>65</v>
       </c>
       <c r="D37" t="s">
-        <v>595</v>
+        <v>710</v>
       </c>
       <c r="E37" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -9926,16 +9932,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B38" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C38" t="s">
         <v>65</v>
       </c>
       <c r="E38" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -9943,19 +9949,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B39" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C39" t="s">
         <v>65</v>
       </c>
       <c r="D39" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E39" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -9963,16 +9969,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B40" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="C40" t="s">
         <v>65</v>
       </c>
       <c r="E40" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -9980,19 +9986,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B41" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C41" t="s">
         <v>65</v>
       </c>
       <c r="D41" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E41" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -10000,16 +10006,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B42" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="C42" t="s">
         <v>65</v>
       </c>
       <c r="E42" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -10017,16 +10023,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B43" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="C43" t="s">
         <v>65</v>
       </c>
       <c r="E43" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -10034,16 +10040,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B44" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C44" t="s">
         <v>65</v>
       </c>
       <c r="D44" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -10051,16 +10057,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C45" t="s">
         <v>65</v>
       </c>
       <c r="D45" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -10068,16 +10074,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C46" t="s">
         <v>65</v>
       </c>
       <c r="D46" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -10119,7 +10125,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C49" t="s">
         <v>66</v>
@@ -10128,10 +10134,10 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H49" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -10150,15 +10156,15 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -10187,7 +10193,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -10198,7 +10204,7 @@
         <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -10209,10 +10215,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -10221,15 +10227,15 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C4" t="s">
         <v>98</v>
@@ -10240,336 +10246,336 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B5" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B6" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C7" t="s">
         <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E8" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B9" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E9" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B10" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="C10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E10" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B11" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E11" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B13" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E13" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B14" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E14" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C15" t="s">
         <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C16" t="s">
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E17" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B18" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E18" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B19" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E19" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B20" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C20" t="s">
         <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B21" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C21" t="s">
         <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -10577,16 +10583,16 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B22" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C22" t="s">
         <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -10619,7 +10625,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10662,7 +10668,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -10673,7 +10679,7 @@
         <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -10684,10 +10690,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -10696,21 +10702,21 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -10718,10 +10724,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
@@ -10730,7 +10736,7 @@
         <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -10738,10 +10744,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
@@ -10750,7 +10756,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -10758,16 +10764,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -10775,19 +10781,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B8" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>638</v>
+        <v>710</v>
       </c>
       <c r="E8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -10795,19 +10801,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B9" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C9" t="s">
         <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>638</v>
+        <v>710</v>
       </c>
       <c r="E9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -10815,10 +10821,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C10" t="s">
         <v>65</v>
@@ -10827,7 +10833,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -10835,10 +10841,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C11" t="s">
         <v>64</v>

--- a/examples/oucru/oucru-06dx/resources/outputs/templates/ccfgs_06dx_data_fixed.xlsx
+++ b/examples/oucru/oucru-06dx/resources/outputs/templates/ccfgs_06dx_data_fixed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbit/Desktop/repositories/github/datablend/main/examples/oucru/oucru-06dx/resources/outputs/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-06dx\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BE6DA5-DDFE-0E4A-B20C-CC211954DA20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E28C9E-2202-4395-9C8F-A7DD25073526}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCR" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,23 @@
     <sheet name="HS" sheetId="21" r:id="rId21"/>
     <sheet name="Category" sheetId="22" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="739">
   <si>
     <t>from_name</t>
   </si>
@@ -502,81 +513,39 @@
     <t>fever</t>
   </si>
   <si>
-    <t>fever_duration</t>
-  </si>
-  <si>
     <t>chills</t>
   </si>
   <si>
-    <t>chills_duration</t>
-  </si>
-  <si>
-    <t>fatigue</t>
-  </si>
-  <si>
-    <t>fatigue_duration</t>
-  </si>
-  <si>
     <t>appetite_lost</t>
   </si>
   <si>
-    <t>appetite_lost_duration</t>
-  </si>
-  <si>
     <t>vomiting</t>
   </si>
   <si>
-    <t>vomiting_duration</t>
-  </si>
-  <si>
     <t>diarrhoea</t>
   </si>
   <si>
-    <t>diarrhoea_duration</t>
-  </si>
-  <si>
     <t>abdominal_pain</t>
   </si>
   <si>
-    <t>abdominal_pain_duration</t>
-  </si>
-  <si>
     <t>sore_throat</t>
   </si>
   <si>
-    <t>sorethroat_duration</t>
-  </si>
-  <si>
     <t>cough</t>
   </si>
   <si>
-    <t>cough_duration</t>
-  </si>
-  <si>
     <t>runny_nose</t>
   </si>
   <si>
-    <t>runny_nose_duration</t>
-  </si>
-  <si>
     <t>headache</t>
   </si>
   <si>
-    <t>headache_duration</t>
-  </si>
-  <si>
     <t>joint_pain</t>
   </si>
   <si>
-    <t>joint_pain_duration</t>
-  </si>
-  <si>
     <t>muscle_pain</t>
   </si>
   <si>
-    <t>muscle_pain_duration</t>
-  </si>
-  <si>
     <t>skin_rash</t>
   </si>
   <si>
@@ -586,15 +555,9 @@
     <t>bleeding_skin</t>
   </si>
   <si>
-    <t>bleeding_skin_duration</t>
-  </si>
-  <si>
     <t>bleeding_mucosal</t>
   </si>
   <si>
-    <t>bleeding_mucosal_duration</t>
-  </si>
-  <si>
     <t>mbdesc</t>
   </si>
   <si>
@@ -793,9 +756,6 @@
     <t>bleeding_other</t>
   </si>
   <si>
-    <t>heart_sound</t>
-  </si>
-  <si>
     <t>heart_sound_desc</t>
   </si>
   <si>
@@ -2138,6 +2098,177 @@
   </si>
   <si>
     <t>{2: 2, 3: 2, 1: 1}</t>
+  </si>
+  <si>
+    <t>heart_sound_abnormal</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>They are all Blank</t>
+  </si>
+  <si>
+    <t>{1: False, 2: True, None: None}</t>
+  </si>
+  <si>
+    <t>They are all 1, thus assuming because desc is blank all normal</t>
+  </si>
+  <si>
+    <t>restlesness</t>
+  </si>
+  <si>
+    <t>study_day_col</t>
+  </si>
+  <si>
+    <t>study_day_ref</t>
+  </si>
+  <si>
+    <t>fever_day</t>
+  </si>
+  <si>
+    <t>chills_day</t>
+  </si>
+  <si>
+    <t>fatigue_day</t>
+  </si>
+  <si>
+    <t>appetite_lost_day</t>
+  </si>
+  <si>
+    <t>vomiting_day</t>
+  </si>
+  <si>
+    <t>diarrhoea_day</t>
+  </si>
+  <si>
+    <t>abdominal_pain_dy</t>
+  </si>
+  <si>
+    <t>sorethroat_dy</t>
+  </si>
+  <si>
+    <t>cough_dy</t>
+  </si>
+  <si>
+    <t>runny_nose_day</t>
+  </si>
+  <si>
+    <t>headache_day</t>
+  </si>
+  <si>
+    <t>joint_pain_day</t>
+  </si>
+  <si>
+    <t>muscle_pain_day</t>
+  </si>
+  <si>
+    <t>bleeding_skin_day</t>
+  </si>
+  <si>
+    <t>bleeding_mucosal_day</t>
+  </si>
+  <si>
+    <t>-FeverD</t>
+  </si>
+  <si>
+    <t>date_chills</t>
+  </si>
+  <si>
+    <t>date_fatigue</t>
+  </si>
+  <si>
+    <t>date_lost_appetite</t>
+  </si>
+  <si>
+    <t>date_vomiting</t>
+  </si>
+  <si>
+    <t>date_diarrhoea</t>
+  </si>
+  <si>
+    <t>date_abdopain</t>
+  </si>
+  <si>
+    <t>date_sorethroat</t>
+  </si>
+  <si>
+    <t>date_cough</t>
+  </si>
+  <si>
+    <t>date_runnynose</t>
+  </si>
+  <si>
+    <t>date_headache</t>
+  </si>
+  <si>
+    <t>date_jointpain</t>
+  </si>
+  <si>
+    <t>date_musclepain</t>
+  </si>
+  <si>
+    <t>date_bleeding_skin</t>
+  </si>
+  <si>
+    <t>date_bleeding_mucosal</t>
+  </si>
+  <si>
+    <t>-ChillsD</t>
+  </si>
+  <si>
+    <t>date_rash</t>
+  </si>
+  <si>
+    <t>-FatigueD</t>
+  </si>
+  <si>
+    <t>-LostappetiteD</t>
+  </si>
+  <si>
+    <t>-VomitingD</t>
+  </si>
+  <si>
+    <t>-DiarrhoeaD</t>
+  </si>
+  <si>
+    <t>-AbdopainD</t>
+  </si>
+  <si>
+    <t>-SorethroatD</t>
+  </si>
+  <si>
+    <t>-CoughD</t>
+  </si>
+  <si>
+    <t>-RunnynoseD</t>
+  </si>
+  <si>
+    <t>-HeadacheD</t>
+  </si>
+  <si>
+    <t>-JointpainD</t>
+  </si>
+  <si>
+    <t>-MusclepainD</t>
+  </si>
+  <si>
+    <t>-RashD</t>
+  </si>
+  <si>
+    <t>-SkinBleedingD</t>
+  </si>
+  <si>
+    <t>-MucosalBleedingD</t>
+  </si>
+  <si>
+    <t>admission_time</t>
+  </si>
+  <si>
+    <t>event_fever</t>
+  </si>
+  <si>
+    <t>date_fever2</t>
   </si>
 </sst>
 </file>
@@ -2169,7 +2300,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2192,13 +2323,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2545,21 +2694,21 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2591,7 +2740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2605,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2622,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2639,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2656,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2673,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2690,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2707,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2721,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2735,7 +2884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2749,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2766,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2783,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2800,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2817,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -2834,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2851,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2868,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2885,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2902,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2919,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2936,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2956,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2976,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2990,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3007,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3024,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3038,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3055,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3088,21 +3237,21 @@
       <selection sqref="A1:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="134.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="134.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3134,7 +3283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -3148,12 +3297,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -3162,12 +3311,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="B4" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="C4" t="s">
         <v>101</v>
@@ -3176,29 +3325,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="B5" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="B6" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
@@ -3207,58 +3356,58 @@
         <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="B7" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="C7" t="s">
         <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="B8" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="C8" t="s">
         <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="B9" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
@@ -3267,18 +3416,18 @@
         <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="B10" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
@@ -3287,18 +3436,18 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="B11" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="C11" t="s">
         <v>66</v>
@@ -3310,29 +3459,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="B12" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="C12" t="s">
         <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="B13" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="C13" t="s">
         <v>66</v>
@@ -3344,12 +3493,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="B14" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="C14" t="s">
         <v>66</v>
@@ -3361,29 +3510,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="B15" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="C15" t="s">
         <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="B16" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="C16" t="s">
         <v>66</v>
@@ -3395,12 +3544,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="B17" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="C17" t="s">
         <v>66</v>
@@ -3412,12 +3561,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="B18" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="C18" t="s">
         <v>66</v>
@@ -3429,12 +3578,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="B19" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="C19" t="s">
         <v>66</v>
@@ -3446,63 +3595,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="B20" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="C20" t="s">
         <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="B21" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="B22" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="C22" t="s">
         <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="B23" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="C23" t="s">
         <v>66</v>
@@ -3514,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3528,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -3558,21 +3707,21 @@
       <selection sqref="A1:J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="90.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3604,7 +3753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -3618,43 +3767,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B3" t="s">
         <v>489</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
         <v>506</v>
       </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" t="s">
-        <v>523</v>
-      </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C4" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="B5" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="C5" t="s">
         <v>67</v>
@@ -3663,46 +3812,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="B6" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="B7" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>473</v>
+      </c>
+      <c r="B8" t="s">
         <v>490</v>
-      </c>
-      <c r="B8" t="s">
-        <v>507</v>
       </c>
       <c r="C8" t="s">
         <v>101</v>
@@ -3711,12 +3860,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B9" t="s">
         <v>491</v>
-      </c>
-      <c r="B9" t="s">
-        <v>508</v>
       </c>
       <c r="C9" t="s">
         <v>65</v>
@@ -3725,46 +3874,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B10" t="s">
         <v>492</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
         <v>509</v>
       </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" t="s">
-        <v>526</v>
-      </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B11" t="s">
         <v>493</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
         <v>510</v>
       </c>
-      <c r="C11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" t="s">
-        <v>527</v>
-      </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>477</v>
+      </c>
+      <c r="B12" t="s">
         <v>494</v>
-      </c>
-      <c r="B12" t="s">
-        <v>511</v>
       </c>
       <c r="C12" t="s">
         <v>65</v>
@@ -3773,12 +3922,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>478</v>
+      </c>
+      <c r="B13" t="s">
         <v>495</v>
-      </c>
-      <c r="B13" t="s">
-        <v>512</v>
       </c>
       <c r="C13" t="s">
         <v>65</v>
@@ -3787,12 +3936,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>479</v>
+      </c>
+      <c r="B14" t="s">
         <v>496</v>
-      </c>
-      <c r="B14" t="s">
-        <v>513</v>
       </c>
       <c r="C14" t="s">
         <v>66</v>
@@ -3804,12 +3953,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>480</v>
+      </c>
+      <c r="B15" t="s">
         <v>497</v>
-      </c>
-      <c r="B15" t="s">
-        <v>514</v>
       </c>
       <c r="C15" t="s">
         <v>66</v>
@@ -3821,97 +3970,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>481</v>
+      </c>
+      <c r="B16" t="s">
         <v>498</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>511</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>482</v>
+      </c>
+      <c r="B17" t="s">
+        <v>499</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>512</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>483</v>
+      </c>
+      <c r="B18" t="s">
+        <v>500</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>513</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>484</v>
+      </c>
+      <c r="B19" t="s">
+        <v>501</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>514</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>485</v>
+      </c>
+      <c r="B20" t="s">
+        <v>502</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
         <v>515</v>
       </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" t="s">
-        <v>528</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>499</v>
-      </c>
-      <c r="B17" t="s">
-        <v>516</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" t="s">
-        <v>529</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>500</v>
-      </c>
-      <c r="B18" t="s">
-        <v>517</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" t="s">
-        <v>530</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>501</v>
-      </c>
-      <c r="B19" t="s">
-        <v>518</v>
-      </c>
-      <c r="C19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" t="s">
-        <v>531</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>502</v>
-      </c>
-      <c r="B20" t="s">
-        <v>519</v>
-      </c>
-      <c r="C20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" t="s">
-        <v>532</v>
-      </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>486</v>
+      </c>
+      <c r="B21" t="s">
         <v>503</v>
-      </c>
-      <c r="B21" t="s">
-        <v>520</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
@@ -3923,29 +4072,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>487</v>
+      </c>
+      <c r="B22" t="s">
         <v>504</v>
       </c>
-      <c r="B22" t="s">
-        <v>521</v>
-      </c>
       <c r="C22" t="s">
         <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>488</v>
+      </c>
+      <c r="B23" t="s">
         <v>505</v>
-      </c>
-      <c r="B23" t="s">
-        <v>522</v>
       </c>
       <c r="C23" t="s">
         <v>65</v>
@@ -3954,7 +4103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -3984,21 +4133,21 @@
       <selection sqref="A1:J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4030,7 +4179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -4044,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -4055,7 +4204,7 @@
         <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -4064,7 +4213,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -4078,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -4092,12 +4241,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="B6" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="C6" t="s">
         <v>67</v>
@@ -4106,15 +4255,15 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="B7" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="C7" t="s">
         <v>67</v>
@@ -4123,332 +4272,332 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="B8" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="C8" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E8" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B9" t="s">
         <v>392</v>
-      </c>
-      <c r="B9" t="s">
-        <v>409</v>
       </c>
       <c r="C9" t="s">
         <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" t="s">
         <v>393</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E10" t="s">
+        <v>534</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
         <v>410</v>
       </c>
-      <c r="C10" t="s">
-        <v>266</v>
-      </c>
-      <c r="E10" t="s">
-        <v>551</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>377</v>
+      </c>
+      <c r="B11" t="s">
         <v>394</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E11" t="s">
+        <v>534</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>378</v>
+      </c>
+      <c r="B12" t="s">
+        <v>395</v>
+      </c>
+      <c r="C12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" t="s">
+        <v>534</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>520</v>
+      </c>
+      <c r="B13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C13" t="s">
+        <v>249</v>
+      </c>
+      <c r="E13" t="s">
+        <v>534</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
         <v>411</v>
       </c>
-      <c r="C11" t="s">
-        <v>266</v>
-      </c>
-      <c r="E11" t="s">
-        <v>551</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>395</v>
-      </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>380</v>
+      </c>
+      <c r="B14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E14" t="s">
+        <v>534</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
         <v>412</v>
       </c>
-      <c r="C12" t="s">
-        <v>266</v>
-      </c>
-      <c r="E12" t="s">
-        <v>551</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>537</v>
-      </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>381</v>
+      </c>
+      <c r="B15" t="s">
+        <v>398</v>
+      </c>
+      <c r="C15" t="s">
+        <v>249</v>
+      </c>
+      <c r="E15" t="s">
+        <v>534</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
         <v>413</v>
       </c>
-      <c r="C13" t="s">
-        <v>266</v>
-      </c>
-      <c r="E13" t="s">
-        <v>551</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>397</v>
-      </c>
-      <c r="B14" t="s">
-        <v>414</v>
-      </c>
-      <c r="C14" t="s">
-        <v>266</v>
-      </c>
-      <c r="E14" t="s">
-        <v>551</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>398</v>
-      </c>
-      <c r="B15" t="s">
-        <v>415</v>
-      </c>
-      <c r="C15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E15" t="s">
-        <v>551</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>382</v>
+      </c>
+      <c r="B16" t="s">
         <v>399</v>
       </c>
-      <c r="B16" t="s">
-        <v>416</v>
-      </c>
       <c r="C16" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E16" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>383</v>
+      </c>
+      <c r="B17" t="s">
         <v>400</v>
-      </c>
-      <c r="B17" t="s">
-        <v>417</v>
       </c>
       <c r="C17" t="s">
         <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>384</v>
+      </c>
+      <c r="B18" t="s">
         <v>401</v>
-      </c>
-      <c r="B18" t="s">
-        <v>418</v>
       </c>
       <c r="C18" t="s">
         <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>385</v>
+      </c>
+      <c r="B19" t="s">
         <v>402</v>
       </c>
-      <c r="B19" t="s">
-        <v>419</v>
-      </c>
       <c r="C19" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E19" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>386</v>
+      </c>
+      <c r="B20" t="s">
         <v>403</v>
       </c>
-      <c r="B20" t="s">
-        <v>420</v>
-      </c>
       <c r="C20" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E20" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>387</v>
+      </c>
+      <c r="B21" t="s">
         <v>404</v>
       </c>
-      <c r="B21" t="s">
-        <v>421</v>
-      </c>
       <c r="C21" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E21" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>388</v>
+      </c>
+      <c r="B22" t="s">
         <v>405</v>
-      </c>
-      <c r="B22" t="s">
-        <v>422</v>
       </c>
       <c r="C22" t="s">
         <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="B23" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="C23" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E23" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="B24" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="C24" t="s">
         <v>66</v>
@@ -4460,46 +4609,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="B25" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="C25" t="s">
         <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="B26" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="C26" t="s">
         <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="B27" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="C27" t="s">
         <v>66</v>
@@ -4511,29 +4660,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="B28" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="C28" t="s">
         <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="B29" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="C29" t="s">
         <v>66</v>
@@ -4545,12 +4694,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="B30" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="C30" t="s">
         <v>65</v>
@@ -4559,29 +4708,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="B31" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="C31" t="s">
         <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="B32" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="C32" t="s">
         <v>66</v>
@@ -4593,12 +4742,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="B33" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="C33" t="s">
         <v>66</v>
@@ -4610,12 +4759,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="B34" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="C34" t="s">
         <v>66</v>
@@ -4627,12 +4776,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="B35" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="C35" t="s">
         <v>66</v>
@@ -4644,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -4674,21 +4823,21 @@
       <selection sqref="A1:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4720,7 +4869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -4734,29 +4883,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="B3" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="B4" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="C4" t="s">
         <v>101</v>
@@ -4765,12 +4914,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
@@ -4779,12 +4928,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="B6" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
@@ -4796,24 +4945,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="B7" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -4843,21 +4992,21 @@
       <selection sqref="A1:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4889,7 +5038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -4903,12 +5052,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="B3" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -4917,12 +5066,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="B4" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -4934,12 +5083,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="B5" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
@@ -4951,12 +5100,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="B6" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="C6" t="s">
         <v>67</v>
@@ -4965,12 +5114,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="B7" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
@@ -4982,12 +5131,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="B8" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
@@ -4996,7 +5145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -5026,21 +5175,21 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5072,12 +5221,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="B2" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="C2" t="s">
         <v>101</v>
@@ -5086,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5100,12 +5249,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="B4" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -5114,81 +5263,81 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="B5" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="E5" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="B6" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="E6" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="B7" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="E7" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="B8" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="C8" t="s">
         <v>67</v>
@@ -5197,7 +5346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -5227,20 +5376,20 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5272,7 +5421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5286,12 +5435,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="B3" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -5300,53 +5449,53 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="B4" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="E4" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="B5" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="E5" t="s">
+        <v>572</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
         <v>589</v>
       </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -5376,21 +5525,21 @@
       <selection sqref="A1:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5422,7 +5571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5436,12 +5585,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="B3" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -5450,92 +5599,92 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="B4" t="s">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="C4" t="s">
         <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="B5" t="s">
-        <v>614</v>
+        <v>597</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="E5" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="B6" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="E6" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>610</v>
+        <v>593</v>
       </c>
       <c r="B7" t="s">
-        <v>616</v>
+        <v>599</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E7" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>611</v>
+        <v>594</v>
       </c>
       <c r="B8" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
@@ -5544,12 +5693,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>612</v>
+        <v>595</v>
       </c>
       <c r="B9" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
@@ -5561,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -5591,21 +5740,21 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5637,24 +5786,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="B2" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5668,12 +5817,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="B4" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -5682,15 +5831,15 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="B5" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="C5" t="s">
         <v>101</v>
@@ -5699,112 +5848,112 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="B6" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E6" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="B7" t="s">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="E7" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>608</v>
+      </c>
+      <c r="B8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8" t="s">
+        <v>572</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>609</v>
+      </c>
+      <c r="B9" t="s">
+        <v>619</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
         <v>625</v>
       </c>
-      <c r="B8" t="s">
-        <v>635</v>
-      </c>
-      <c r="C8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8" t="s">
-        <v>589</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="E9" t="s">
+        <v>572</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>610</v>
+      </c>
+      <c r="B10" t="s">
+        <v>573</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
         <v>626</v>
       </c>
-      <c r="B9" t="s">
-        <v>636</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s">
-        <v>642</v>
-      </c>
-      <c r="E9" t="s">
-        <v>589</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>627</v>
-      </c>
-      <c r="B10" t="s">
-        <v>590</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" t="s">
-        <v>643</v>
-      </c>
       <c r="E10" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="B11" t="s">
-        <v>637</v>
+        <v>620</v>
       </c>
       <c r="C11" t="s">
         <v>65</v>
@@ -5813,55 +5962,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
       <c r="B12" t="s">
-        <v>638</v>
+        <v>621</v>
       </c>
       <c r="C12" t="s">
         <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="B13" t="s">
-        <v>639</v>
+        <v>622</v>
       </c>
       <c r="C13" t="s">
         <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>644</v>
+        <v>627</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>631</v>
+        <v>614</v>
       </c>
       <c r="B14" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="C14" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -5891,21 +6040,21 @@
       <selection sqref="A1:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5937,7 +6086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5951,12 +6100,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>646</v>
+        <v>629</v>
       </c>
       <c r="B3" t="s">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -5965,12 +6114,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>647</v>
+        <v>630</v>
       </c>
       <c r="B4" t="s">
-        <v>651</v>
+        <v>634</v>
       </c>
       <c r="C4" t="s">
         <v>101</v>
@@ -5979,12 +6128,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>648</v>
+        <v>631</v>
       </c>
       <c r="B5" t="s">
-        <v>652</v>
+        <v>635</v>
       </c>
       <c r="C5" t="s">
         <v>101</v>
@@ -5993,24 +6142,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>649</v>
+        <v>632</v>
       </c>
       <c r="B6" t="s">
-        <v>653</v>
+        <v>636</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -6040,21 +6189,21 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6086,7 +6235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -6100,7 +6249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -6114,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -6134,7 +6283,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -6154,7 +6303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -6168,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -6182,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -6196,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -6210,7 +6359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -6224,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -6241,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -6255,7 +6404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -6269,7 +6418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -6286,7 +6435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -6309,7 +6458,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -6345,21 +6494,21 @@
       <selection sqref="A1:J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6391,7 +6540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6405,12 +6554,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="B3" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -6419,260 +6568,260 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>654</v>
+        <v>637</v>
       </c>
       <c r="B4" t="s">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="E4" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="B5" t="s">
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="E5" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B6" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="E6" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="B7" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="E7" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="B8" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="E8" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>659</v>
+        <v>642</v>
       </c>
       <c r="B9" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="C9" t="s">
         <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="E9" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="B10" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C10" t="s">
         <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="E10" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="B11" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="C11" t="s">
         <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="E11" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>662</v>
+        <v>645</v>
       </c>
       <c r="B12" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="C12" t="s">
         <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="E12" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="B13" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C13" t="s">
         <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="E13" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>664</v>
+        <v>647</v>
       </c>
       <c r="B14" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="C14" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E14" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -6702,20 +6851,20 @@
       <selection sqref="A1:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6747,7 +6896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -6761,12 +6910,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="B3" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -6775,12 +6924,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="B4" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="C4" t="s">
         <v>101</v>
@@ -6789,27 +6938,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="B5" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="C5" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E5" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -6837,9 +6986,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6871,12 +7020,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="B2" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="C2" t="s">
         <v>65</v>
@@ -6885,12 +7034,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="B3" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="C3" t="s">
         <v>65</v>
@@ -6899,29 +7048,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="B4" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="B5" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
@@ -6930,12 +7079,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="B6" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
@@ -6944,12 +7093,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B7" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
@@ -6965,27 +7114,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="226" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7016,8 +7167,14 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -7031,24 +7188,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -7061,8 +7218,11 @@
       <c r="F4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -7076,7 +7236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -7096,29 +7256,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>690</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -7127,35 +7287,35 @@
         <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>149</v>
+        <v>706</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>691</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>687</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
@@ -7164,35 +7324,35 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>149</v>
+        <v>707</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>692</v>
       </c>
       <c r="C11" t="s">
         <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C12" t="s">
         <v>66</v>
@@ -7201,35 +7361,35 @@
         <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>708</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>693</v>
       </c>
       <c r="C13" t="s">
         <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
         <v>66</v>
@@ -7238,109 +7398,109 @@
         <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>149</v>
+        <v>709</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>694</v>
       </c>
       <c r="C15" t="s">
         <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
         <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E16" t="s">
-        <v>149</v>
+        <v>710</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>121</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>695</v>
       </c>
       <c r="C17" t="s">
         <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
         <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E18" t="s">
-        <v>149</v>
+        <v>711</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>696</v>
       </c>
       <c r="C19" t="s">
         <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>124</v>
       </c>
       <c r="B20" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C20" t="s">
         <v>66</v>
@@ -7349,35 +7509,35 @@
         <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>149</v>
+        <v>712</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>697</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>126</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C22" t="s">
         <v>66</v>
@@ -7386,35 +7546,35 @@
         <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>149</v>
+        <v>713</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>169</v>
+        <v>698</v>
       </c>
       <c r="C23" t="s">
         <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C24" t="s">
         <v>66</v>
@@ -7423,35 +7583,35 @@
         <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>149</v>
+        <v>714</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>129</v>
       </c>
       <c r="B25" t="s">
-        <v>171</v>
+        <v>699</v>
       </c>
       <c r="C25" t="s">
         <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C26" t="s">
         <v>66</v>
@@ -7460,35 +7620,35 @@
         <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>149</v>
+        <v>715</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>131</v>
       </c>
       <c r="B27" t="s">
-        <v>173</v>
+        <v>700</v>
       </c>
       <c r="C27" t="s">
         <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>132</v>
       </c>
       <c r="B28" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C28" t="s">
         <v>66</v>
@@ -7497,35 +7657,35 @@
         <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>716</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>133</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>701</v>
       </c>
       <c r="C29" t="s">
         <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C30" t="s">
         <v>66</v>
@@ -7534,35 +7694,35 @@
         <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>149</v>
+        <v>717</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>135</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>702</v>
       </c>
       <c r="C31" t="s">
         <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>136</v>
       </c>
       <c r="B32" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C32" t="s">
         <v>66</v>
@@ -7571,126 +7731,126 @@
         <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>149</v>
+        <v>721</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>137</v>
       </c>
       <c r="B33" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C33" t="s">
         <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>138</v>
       </c>
       <c r="B34" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C34" t="s">
         <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E34" t="s">
-        <v>149</v>
+        <v>718</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>139</v>
       </c>
       <c r="B35" t="s">
-        <v>181</v>
+        <v>703</v>
       </c>
       <c r="C35" t="s">
         <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>140</v>
       </c>
       <c r="B36" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C36" t="s">
         <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E36" t="s">
-        <v>149</v>
+        <v>719</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>141</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
+        <v>704</v>
       </c>
       <c r="C37" t="s">
         <v>66</v>
       </c>
       <c r="D37" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>142</v>
       </c>
       <c r="B38" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C38" t="s">
         <v>66</v>
       </c>
       <c r="D38" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>143</v>
       </c>
       <c r="B39" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C39" t="s">
         <v>66</v>
@@ -7702,12 +7862,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>144</v>
       </c>
       <c r="B40" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C40" t="s">
         <v>65</v>
@@ -7716,12 +7876,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>145</v>
       </c>
       <c r="B41" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s">
         <v>66</v>
@@ -7733,12 +7893,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>146</v>
       </c>
       <c r="B42" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C42" t="s">
         <v>65</v>
@@ -7747,12 +7907,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>147</v>
       </c>
       <c r="B43" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C43" t="s">
         <v>66</v>
@@ -7764,12 +7924,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>148</v>
       </c>
       <c r="B44" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C44" t="s">
         <v>65</v>
@@ -7778,7 +7938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -7789,13 +7949,13 @@
         <v>66</v>
       </c>
       <c r="D45" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -7812,12 +7972,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
         <v>67</v>
@@ -7825,11 +7985,408 @@
       <c r="F47" t="b">
         <v>1</v>
       </c>
-      <c r="G47" t="s">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" t="s">
+        <v>736</v>
+      </c>
+      <c r="C48" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>313</v>
+      </c>
+      <c r="B49" t="s">
+        <v>313</v>
+      </c>
+      <c r="C49" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>326</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
         <v>108</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H50" t="s">
         <v>109</v>
+      </c>
+      <c r="I50" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>738</v>
+      </c>
+      <c r="B51" t="s">
+        <v>738</v>
+      </c>
+      <c r="C51" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>737</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="L51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>706</v>
+      </c>
+      <c r="B52" t="s">
+        <v>706</v>
+      </c>
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="L52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>707</v>
+      </c>
+      <c r="B53" t="s">
+        <v>707</v>
+      </c>
+      <c r="C53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" t="b">
+        <v>1</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="L53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>708</v>
+      </c>
+      <c r="B54" t="s">
+        <v>708</v>
+      </c>
+      <c r="C54" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" t="b">
+        <v>1</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="L54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>709</v>
+      </c>
+      <c r="B55" t="s">
+        <v>709</v>
+      </c>
+      <c r="C55" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="L55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>710</v>
+      </c>
+      <c r="B56" t="s">
+        <v>710</v>
+      </c>
+      <c r="C56" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="L56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>711</v>
+      </c>
+      <c r="B57" t="s">
+        <v>711</v>
+      </c>
+      <c r="C57" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57" t="b">
+        <v>1</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="L57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>712</v>
+      </c>
+      <c r="B58" t="s">
+        <v>712</v>
+      </c>
+      <c r="C58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F58" t="b">
+        <v>1</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="L58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>713</v>
+      </c>
+      <c r="B59" t="s">
+        <v>713</v>
+      </c>
+      <c r="C59" t="s">
+        <v>67</v>
+      </c>
+      <c r="F59" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="L59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>714</v>
+      </c>
+      <c r="B60" t="s">
+        <v>714</v>
+      </c>
+      <c r="C60" t="s">
+        <v>67</v>
+      </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="L60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>715</v>
+      </c>
+      <c r="B61" t="s">
+        <v>715</v>
+      </c>
+      <c r="C61" t="s">
+        <v>67</v>
+      </c>
+      <c r="F61" t="b">
+        <v>1</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="L61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>716</v>
+      </c>
+      <c r="B62" t="s">
+        <v>716</v>
+      </c>
+      <c r="C62" t="s">
+        <v>67</v>
+      </c>
+      <c r="F62" t="b">
+        <v>1</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="L62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>717</v>
+      </c>
+      <c r="B63" t="s">
+        <v>717</v>
+      </c>
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63" t="b">
+        <v>1</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="L63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>721</v>
+      </c>
+      <c r="B64" t="s">
+        <v>721</v>
+      </c>
+      <c r="C64" t="s">
+        <v>67</v>
+      </c>
+      <c r="F64" t="b">
+        <v>1</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="L64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>718</v>
+      </c>
+      <c r="B65" t="s">
+        <v>718</v>
+      </c>
+      <c r="C65" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="L65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>719</v>
+      </c>
+      <c r="B66" t="s">
+        <v>719</v>
+      </c>
+      <c r="C66" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" t="b">
+        <v>1</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="L66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" t="s">
+        <v>67</v>
+      </c>
+      <c r="F67" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>83</v>
+      </c>
+      <c r="H67" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -7839,27 +8396,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A41" sqref="A41:XFD42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7890,8 +8448,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -7905,15 +8466,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="C3" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E3" t="s">
         <v>89</v>
@@ -7922,15 +8483,15 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C4" t="s">
         <v>101</v>
@@ -7942,15 +8503,15 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
@@ -7962,15 +8523,15 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
         <v>101</v>
@@ -7982,15 +8543,15 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C7" t="s">
         <v>101</v>
@@ -8002,18 +8563,18 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C8" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E8" t="s">
         <v>89</v>
@@ -8022,15 +8583,15 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B9" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="C9" t="s">
         <v>101</v>
@@ -8042,15 +8603,15 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>136</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
@@ -8065,12 +8626,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s">
         <v>65</v>
@@ -8079,12 +8640,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="B12" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="C12" t="s">
         <v>66</v>
@@ -8099,12 +8660,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C13" t="s">
         <v>66</v>
@@ -8113,12 +8674,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B14" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="C14" t="s">
         <v>66</v>
@@ -8133,12 +8694,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C15" t="s">
         <v>66</v>
@@ -8153,12 +8714,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C16" t="s">
         <v>66</v>
@@ -8173,12 +8734,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="C17" t="s">
         <v>66</v>
@@ -8193,12 +8754,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="C18" t="s">
         <v>66</v>
@@ -8213,12 +8774,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C19" t="s">
         <v>66</v>
@@ -8233,12 +8794,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="C20" t="s">
         <v>66</v>
@@ -8253,12 +8814,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
@@ -8273,12 +8834,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="B22" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="C22" t="s">
         <v>66</v>
@@ -8293,12 +8854,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B23" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="C23" t="s">
         <v>66</v>
@@ -8307,18 +8868,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="B24" t="s">
-        <v>250</v>
+        <v>682</v>
       </c>
       <c r="C24" t="s">
         <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>685</v>
       </c>
       <c r="E24" t="s">
         <v>89</v>
@@ -8326,13 +8887,16 @@
       <c r="F24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B25" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="C25" t="s">
         <v>66</v>
@@ -8340,13 +8904,16 @@
       <c r="F25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B26" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C26" t="s">
         <v>66</v>
@@ -8361,12 +8928,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="B27" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="C27" t="s">
         <v>66</v>
@@ -8381,12 +8948,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B28" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="C28" t="s">
         <v>66</v>
@@ -8395,12 +8962,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B29" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C29" t="s">
         <v>66</v>
@@ -8415,12 +8982,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B30" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="C30" t="s">
         <v>66</v>
@@ -8429,12 +8996,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="B31" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="C31" t="s">
         <v>66</v>
@@ -8449,12 +9016,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B32" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="C32" t="s">
         <v>66</v>
@@ -8466,12 +9033,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B33" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C33" t="s">
         <v>66</v>
@@ -8486,12 +9053,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B34" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C34" t="s">
         <v>66</v>
@@ -8503,12 +9070,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="B35" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C35" t="s">
         <v>66</v>
@@ -8520,29 +9087,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="B36" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="C36" t="s">
         <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="B37" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C37" t="s">
         <v>66</v>
@@ -8551,12 +9118,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="B38" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C38" t="s">
         <v>66</v>
@@ -8565,12 +9132,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="B39" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="C39" t="s">
         <v>65</v>
@@ -8579,7 +9146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -8596,12 +9163,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C41" t="s">
         <v>67</v>
@@ -8609,10 +9176,40 @@
       <c r="F41" t="b">
         <v>1</v>
       </c>
-      <c r="G41" t="s">
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>736</v>
+      </c>
+      <c r="C42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
         <v>83</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H43" t="s">
         <v>84</v>
       </c>
     </row>
@@ -8629,21 +9226,21 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8675,7 +9272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -8689,12 +9286,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="C3" t="s">
         <v>65</v>
@@ -8703,12 +9300,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -8720,29 +9317,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s">
         <v>67</v>
@@ -8751,15 +9348,15 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="B7" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
@@ -8771,12 +9368,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="B8" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -8788,29 +9385,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="B10" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
@@ -8822,12 +9419,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="B11" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C11" t="s">
         <v>66</v>
@@ -8839,12 +9436,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="C12" t="s">
         <v>66</v>
@@ -8856,12 +9453,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="B13" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="C13" t="s">
         <v>66</v>
@@ -8873,12 +9470,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="B14" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C14" t="s">
         <v>66</v>
@@ -8890,12 +9487,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="B15" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C15" t="s">
         <v>66</v>
@@ -8907,12 +9504,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="B16" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="C16" t="s">
         <v>67</v>
@@ -8921,12 +9518,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="B17" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C17" t="s">
         <v>65</v>
@@ -8935,32 +9532,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="B18" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="C18" t="s">
         <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="E18" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="B19" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="C19" t="s">
         <v>67</v>
@@ -8969,15 +9566,15 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="B20" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="C20" t="s">
         <v>66</v>
@@ -8989,12 +9586,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="B21" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
@@ -9006,12 +9603,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="B22" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="C22" t="s">
         <v>66</v>
@@ -9023,7 +9620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -9053,21 +9650,21 @@
       <selection sqref="A1:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9099,7 +9696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -9113,29 +9710,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -9144,15 +9741,15 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
@@ -9164,12 +9761,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="B6" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C6" t="s">
         <v>67</v>
@@ -9178,12 +9775,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="B7" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
@@ -9195,46 +9792,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="B9" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="B10" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="C10" t="s">
         <v>65</v>
@@ -9243,12 +9840,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="B11" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="C11" t="s">
         <v>65</v>
@@ -9257,12 +9854,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="B12" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="C12" t="s">
         <v>65</v>
@@ -9271,12 +9868,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="B13" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="C13" t="s">
         <v>65</v>
@@ -9285,12 +9882,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="B14" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="C14" t="s">
         <v>65</v>
@@ -9299,12 +9896,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="B15" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="C15" t="s">
         <v>65</v>
@@ -9313,7 +9910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -9343,21 +9940,21 @@
       <selection sqref="A1:J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9389,7 +9986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -9403,12 +10000,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="C3" t="s">
         <v>65</v>
@@ -9417,12 +10014,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="B4" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -9431,12 +10028,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="B5" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="C5" t="s">
         <v>101</v>
@@ -9445,52 +10042,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E6" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C7" t="s">
         <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -9499,78 +10096,78 @@
         <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="B9" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
         <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C10" t="s">
         <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C11" t="s">
         <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="B12" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="C12" t="s">
         <v>66</v>
@@ -9582,12 +10179,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="B13" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="C13" t="s">
         <v>66</v>
@@ -9596,18 +10193,18 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="B14" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="C14" t="s">
         <v>66</v>
@@ -9616,18 +10213,18 @@
         <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
         <v>66</v>
@@ -9636,18 +10233,18 @@
         <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
         <v>65</v>
@@ -9656,12 +10253,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="B17" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="C17" t="s">
         <v>66</v>
@@ -9670,18 +10267,18 @@
         <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C18" t="s">
         <v>66</v>
@@ -9690,18 +10287,18 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C19" t="s">
         <v>66</v>
@@ -9710,18 +10307,18 @@
         <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="C20" t="s">
         <v>66</v>
@@ -9730,18 +10327,18 @@
         <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
@@ -9750,18 +10347,18 @@
         <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C22" t="s">
         <v>66</v>
@@ -9770,18 +10367,18 @@
         <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="C23" t="s">
         <v>66</v>
@@ -9790,18 +10387,18 @@
         <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="C24" t="s">
         <v>66</v>
@@ -9810,18 +10407,18 @@
         <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="B25" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="C25" t="s">
         <v>66</v>
@@ -9830,18 +10427,18 @@
         <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B26" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C26" t="s">
         <v>65</v>
@@ -9850,29 +10447,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="B27" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="C27" t="s">
         <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="B28" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C28" t="s">
         <v>66</v>
@@ -9881,18 +10478,18 @@
         <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="B29" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="C29" t="s">
         <v>66</v>
@@ -9904,12 +10501,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="B30" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="C30" t="s">
         <v>66</v>
@@ -9918,12 +10515,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="B31" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="C31" t="s">
         <v>66</v>
@@ -9935,12 +10532,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="B32" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="C32" t="s">
         <v>65</v>
@@ -9949,12 +10546,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>118</v>
       </c>
       <c r="B33" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C33" t="s">
         <v>66</v>
@@ -9963,35 +10560,35 @@
         <v>75</v>
       </c>
       <c r="E33" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B34" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="C34" t="s">
         <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C35" t="s">
         <v>66</v>
@@ -10000,72 +10597,72 @@
         <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="B36" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="C36" t="s">
         <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>122</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C37" t="s">
         <v>66</v>
       </c>
       <c r="D37" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E37" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="C38" t="s">
         <v>66</v>
       </c>
       <c r="E38" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B39" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="C39" t="s">
         <v>66</v>
@@ -10074,35 +10671,35 @@
         <v>75</v>
       </c>
       <c r="E39" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B40" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="C40" t="s">
         <v>66</v>
       </c>
       <c r="E40" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B41" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C41" t="s">
         <v>66</v>
@@ -10111,98 +10708,98 @@
         <v>75</v>
       </c>
       <c r="E41" t="s">
+        <v>351</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>348</v>
+      </c>
+      <c r="B42" t="s">
         <v>368</v>
       </c>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>365</v>
-      </c>
-      <c r="B42" t="s">
-        <v>385</v>
-      </c>
       <c r="C42" t="s">
         <v>66</v>
       </c>
       <c r="E42" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B43" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C43" t="s">
         <v>66</v>
       </c>
       <c r="E43" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="B44" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="C44" t="s">
         <v>66</v>
       </c>
       <c r="D44" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="B45" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="C45" t="s">
         <v>66</v>
       </c>
       <c r="D45" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="B46" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="C46" t="s">
         <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -10216,7 +10813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -10233,12 +10830,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="B49" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="C49" t="s">
         <v>67</v>
@@ -10247,10 +10844,10 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="H49" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -10266,21 +10863,21 @@
       <selection sqref="A1:J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10312,7 +10909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -10326,12 +10923,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -10340,15 +10937,15 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="B4" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="C4" t="s">
         <v>101</v>
@@ -10357,361 +10954,361 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="B5" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="C5" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E5" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B6" t="s">
         <v>391</v>
       </c>
-      <c r="B6" t="s">
-        <v>408</v>
-      </c>
       <c r="C6" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E6" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B7" t="s">
         <v>392</v>
-      </c>
-      <c r="B7" t="s">
-        <v>409</v>
       </c>
       <c r="C7" t="s">
         <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B8" t="s">
         <v>393</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
         <v>410</v>
       </c>
-      <c r="C8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8" t="s">
-        <v>368</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B9" t="s">
         <v>394</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" t="s">
+        <v>351</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>379</v>
+      </c>
+      <c r="B11" t="s">
+        <v>396</v>
+      </c>
+      <c r="C11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
         <v>411</v>
       </c>
-      <c r="C9" t="s">
-        <v>266</v>
-      </c>
-      <c r="E9" t="s">
-        <v>368</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>380</v>
+      </c>
+      <c r="B12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" t="s">
+        <v>351</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
         <v>412</v>
       </c>
-      <c r="C10" t="s">
-        <v>266</v>
-      </c>
-      <c r="E10" t="s">
-        <v>368</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>396</v>
-      </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>381</v>
+      </c>
+      <c r="B13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C13" t="s">
+        <v>249</v>
+      </c>
+      <c r="E13" t="s">
+        <v>351</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
         <v>413</v>
       </c>
-      <c r="C11" t="s">
-        <v>266</v>
-      </c>
-      <c r="E11" t="s">
-        <v>368</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>397</v>
-      </c>
-      <c r="B12" t="s">
-        <v>414</v>
-      </c>
-      <c r="C12" t="s">
-        <v>266</v>
-      </c>
-      <c r="E12" t="s">
-        <v>368</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>398</v>
-      </c>
-      <c r="B13" t="s">
-        <v>415</v>
-      </c>
-      <c r="C13" t="s">
-        <v>266</v>
-      </c>
-      <c r="E13" t="s">
-        <v>368</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B14" t="s">
         <v>399</v>
       </c>
-      <c r="B14" t="s">
-        <v>416</v>
-      </c>
       <c r="C14" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E14" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>383</v>
+      </c>
+      <c r="B15" t="s">
         <v>400</v>
-      </c>
-      <c r="B15" t="s">
-        <v>417</v>
       </c>
       <c r="C15" t="s">
         <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>384</v>
+      </c>
+      <c r="B16" t="s">
         <v>401</v>
-      </c>
-      <c r="B16" t="s">
-        <v>418</v>
       </c>
       <c r="C16" t="s">
         <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>385</v>
+      </c>
+      <c r="B17" t="s">
         <v>402</v>
       </c>
-      <c r="B17" t="s">
-        <v>419</v>
-      </c>
       <c r="C17" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E17" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>386</v>
+      </c>
+      <c r="B18" t="s">
         <v>403</v>
       </c>
-      <c r="B18" t="s">
-        <v>420</v>
-      </c>
       <c r="C18" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E18" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>387</v>
+      </c>
+      <c r="B19" t="s">
         <v>404</v>
       </c>
-      <c r="B19" t="s">
-        <v>421</v>
-      </c>
       <c r="C19" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E19" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>388</v>
+      </c>
+      <c r="B20" t="s">
         <v>405</v>
-      </c>
-      <c r="B20" t="s">
-        <v>422</v>
       </c>
       <c r="C20" t="s">
         <v>101</v>
       </c>
       <c r="E20" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>389</v>
+      </c>
+      <c r="B21" t="s">
         <v>406</v>
-      </c>
-      <c r="B21" t="s">
-        <v>423</v>
       </c>
       <c r="C21" t="s">
         <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>390</v>
+      </c>
+      <c r="B22" t="s">
         <v>407</v>
-      </c>
-      <c r="B22" t="s">
-        <v>424</v>
       </c>
       <c r="C22" t="s">
         <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -10741,21 +11338,21 @@
       <selection sqref="A1:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10787,7 +11384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -10801,12 +11398,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -10815,32 +11412,32 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="B4" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
@@ -10849,18 +11446,18 @@
         <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
@@ -10869,75 +11466,75 @@
         <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="B7" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="B8" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E8" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="B9" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="B10" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
@@ -10946,18 +11543,18 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="B11" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="C11" t="s">
         <v>65</v>
@@ -10966,7 +11563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>

--- a/examples/oucru/oucru-06dx/resources/outputs/templates/ccfgs_06dx_data_fixed.xlsx
+++ b/examples/oucru/oucru-06dx/resources/outputs/templates/ccfgs_06dx_data_fixed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-06dx\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E28C9E-2202-4395-9C8F-A7DD25073526}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B348A1F-BE68-4B2E-91A3-32418888CFA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25530" yWindow="1260" windowWidth="20325" windowHeight="16470" firstSheet="1" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCR" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="742">
   <si>
     <t>from_name</t>
   </si>
@@ -777,9 +777,6 @@
     <t>abdominal_tenderness</t>
   </si>
   <si>
-    <t>distended</t>
-  </si>
-  <si>
     <t>ascites</t>
   </si>
   <si>
@@ -789,9 +786,6 @@
     <t>spleen_palpation_size</t>
   </si>
   <si>
-    <t>cns</t>
-  </si>
-  <si>
     <t>cnsdesc</t>
   </si>
   <si>
@@ -804,9 +798,6 @@
     <t>float64</t>
   </si>
   <si>
-    <t>{1: 'V_0'}</t>
-  </si>
-  <si>
     <t>celsius</t>
   </si>
   <si>
@@ -885,9 +876,6 @@
     <t>ReasonTransfer</t>
   </si>
   <si>
-    <t>final_diag</t>
-  </si>
-  <si>
     <t>transfer_icu</t>
   </si>
   <si>
@@ -1116,9 +1104,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>day_illness</t>
-  </si>
-  <si>
     <t>pulse20</t>
   </si>
   <si>
@@ -1161,18 +1146,12 @@
     <t>ascites_level</t>
   </si>
   <si>
-    <t>spleen_palpation</t>
-  </si>
-  <si>
     <t>neurology</t>
   </si>
   <si>
     <t>behaviour</t>
   </si>
   <si>
-    <t>{0: 'V_0'}</t>
-  </si>
-  <si>
     <t>MaxHCT</t>
   </si>
   <si>
@@ -1317,9 +1296,6 @@
     <t>Others</t>
   </si>
   <si>
-    <t>side</t>
-  </si>
-  <si>
     <t>pericardial_effusion</t>
   </si>
   <si>
@@ -1332,12 +1308,6 @@
     <t>others</t>
   </si>
   <si>
-    <t>{6: 'V_0', 7: 'V_1', 8: 'V_2', 5: 'V_3', 9: 'V_4'}</t>
-  </si>
-  <si>
-    <t>{2: 'V_0', 3: 'V_2'}</t>
-  </si>
-  <si>
     <t>event_ultrasound</t>
   </si>
   <si>
@@ -1458,9 +1428,6 @@
     <t>{1: 'V_0', 4: 'V_1', 3: 'V_3', 2: 'V_4'}</t>
   </si>
   <si>
-    <t>{2: 'V_0'}</t>
-  </si>
-  <si>
     <t>{'GLUCOSE 30%': 'V_1', 'GLUCOSE 30% + DUNG DỊCH NGHIÊN CỨU 525ML': 'V_2', 'GLUCOSE 30% 250 ML': 'V_3', 'GLUCOSE 30% 150 ML': 'V_4', 'GLUCOSE 30 % 100 ML': 'V_5'}</t>
   </si>
   <si>
@@ -1575,9 +1542,6 @@
     <t>{0.5: 'V_0', 2.0: 'V_1'}</t>
   </si>
   <si>
-    <t>{2: 'V_0', 3: 'V_1', 4: 'V_2', 5: 'V_3', 1: 'V_4'}</t>
-  </si>
-  <si>
     <t>{1: 'V_0', 4: 'V_1', 2: 'V_2'}</t>
   </si>
   <si>
@@ -1812,9 +1776,6 @@
     <t>ns1_concentration</t>
   </si>
   <si>
-    <t>{1: 'Positive', 2: 'Negative', 3: 'Equivocal', 4: 'No sample'}</t>
-  </si>
-  <si>
     <t>{'ND': 0}</t>
   </si>
   <si>
@@ -1917,9 +1878,6 @@
     <t>indirect_elisa</t>
   </si>
   <si>
-    <t>indirect_elisaresult</t>
-  </si>
-  <si>
     <t>immune_status</t>
   </si>
   <si>
@@ -1935,9 +1893,6 @@
     <t>{1: 'DENV-1', 2: 'DENV-2', 3: 'DENV-3', 4: 'DENV-4', 9: None}</t>
   </si>
   <si>
-    <t>{2: 'V_0', 1: 'V_1', 3: 'V_2'}</t>
-  </si>
-  <si>
     <t>event_serology</t>
   </si>
   <si>
@@ -1959,9 +1914,6 @@
     <t>random_no</t>
   </si>
   <si>
-    <t>block_number</t>
-  </si>
-  <si>
     <t>random_arm</t>
   </si>
   <si>
@@ -2112,12 +2064,6 @@
     <t>{1: False, 2: True, None: None}</t>
   </si>
   <si>
-    <t>They are all 1, thus assuming because desc is blank all normal</t>
-  </si>
-  <si>
-    <t>restlesness</t>
-  </si>
-  <si>
     <t>study_day_col</t>
   </si>
   <si>
@@ -2269,6 +2215,69 @@
   </si>
   <si>
     <t>date_fever2</t>
+  </si>
+  <si>
+    <t>restlessness</t>
+  </si>
+  <si>
+    <t>day_from_illness</t>
+  </si>
+  <si>
+    <t>-Dayillness</t>
+  </si>
+  <si>
+    <t>abdominal_distension</t>
+  </si>
+  <si>
+    <t>cns_abnormal</t>
+  </si>
+  <si>
+    <t>Reverse 1:False, 2:True</t>
+  </si>
+  <si>
+    <t>{1: 1}</t>
+  </si>
+  <si>
+    <t>{0: 0}</t>
+  </si>
+  <si>
+    <t>All constant</t>
+  </si>
+  <si>
+    <t>{6: 6, 7: 7, 8: 8, 5: 5, 9: 9}</t>
+  </si>
+  <si>
+    <t>{2: 2, 3: 3}</t>
+  </si>
+  <si>
+    <t>pleural_effusion_side</t>
+  </si>
+  <si>
+    <t>{2: 2, 3: 3, 4: 4, 5: 5, 1: 1}</t>
+  </si>
+  <si>
+    <t>{2: False}</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>{1: 'Positive', 2: 'Negative', 3: 'Equivocal', 4: None}</t>
+  </si>
+  <si>
+    <t>{1: 1, 2: 2, 3: 3}</t>
+  </si>
+  <si>
+    <t>{2: 3, 1: 1, 3: 3}</t>
+  </si>
+  <si>
+    <t>indirect_elisa_result</t>
+  </si>
+  <si>
+    <t>random_block_no</t>
+  </si>
+  <si>
+    <t>{1: 'Placebo - Low Dose', 2: 'Placebo - High Dose', 3: 'Steroids - Low Dose', 4: 'Steroids - High Dose'}</t>
   </si>
 </sst>
 </file>
@@ -2292,12 +2301,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -2338,7 +2359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2350,6 +2371,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2691,21 +2714,21 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3231,10 +3254,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J25"/>
+      <selection activeCell="K20" sqref="K20:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3242,7 +3265,7 @@
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="134.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -3251,7 +3274,7 @@
     <col min="10" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3282,8 +3305,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -3297,12 +3323,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -3311,12 +3337,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B4" t="s">
-        <v>354</v>
+        <v>722</v>
       </c>
       <c r="C4" t="s">
         <v>101</v>
@@ -3325,29 +3351,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B5" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>467</v>
+        <v>457</v>
+      </c>
+      <c r="E5" t="s">
+        <v>349</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B6" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
@@ -3356,58 +3385,58 @@
         <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C7" t="s">
         <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B8" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C8" t="s">
         <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B9" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
@@ -3416,18 +3445,18 @@
         <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B10" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
@@ -3436,18 +3465,18 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B11" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C11" t="s">
         <v>66</v>
@@ -3459,29 +3488,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>436</v>
-      </c>
-      <c r="B12" t="s">
-        <v>455</v>
-      </c>
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" t="s">
-        <v>468</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="F12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B13" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="C13" t="s">
         <v>66</v>
@@ -3493,12 +3525,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B14" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="C14" t="s">
         <v>66</v>
@@ -3510,29 +3542,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B15" t="s">
+        <v>448</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
         <v>458</v>
       </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" t="s">
-        <v>469</v>
-      </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B16" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="C16" t="s">
         <v>66</v>
@@ -3544,12 +3576,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B17" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="C17" t="s">
         <v>66</v>
@@ -3557,16 +3589,19 @@
       <c r="D17" t="s">
         <v>68</v>
       </c>
+      <c r="E17" t="s">
+        <v>349</v>
+      </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B18" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="C18" t="s">
         <v>66</v>
@@ -3574,16 +3609,19 @@
       <c r="D18" t="s">
         <v>68</v>
       </c>
+      <c r="E18" t="s">
+        <v>349</v>
+      </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B19" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C19" t="s">
         <v>66</v>
@@ -3591,67 +3629,79 @@
       <c r="D19" t="s">
         <v>68</v>
       </c>
+      <c r="E19" t="s">
+        <v>349</v>
+      </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>444</v>
-      </c>
-      <c r="B20" t="s">
-        <v>463</v>
-      </c>
-      <c r="C20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" t="s">
-        <v>468</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>445</v>
-      </c>
-      <c r="B21" t="s">
-        <v>464</v>
-      </c>
-      <c r="C21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" t="s">
-        <v>468</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>446</v>
-      </c>
-      <c r="B22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" t="s">
-        <v>468</v>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="F20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="F21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="F22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B23" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="C23" t="s">
         <v>66</v>
@@ -3663,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3677,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -3704,7 +3754,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J24"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3769,16 +3819,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="B3" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -3792,7 +3842,7 @@
         <v>220</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -3800,10 +3850,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C5" t="s">
         <v>67</v>
@@ -3814,16 +3864,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B6" t="s">
-        <v>354</v>
+        <v>722</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>507</v>
+        <v>733</v>
+      </c>
+      <c r="E6" t="s">
+        <v>349</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -3831,16 +3884,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -3848,10 +3901,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="B8" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="C8" t="s">
         <v>101</v>
@@ -3862,10 +3915,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="B9" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="C9" t="s">
         <v>65</v>
@@ -3876,16 +3929,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="B10" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -3893,16 +3946,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="B11" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="C11" t="s">
         <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -3910,10 +3963,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="B12" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="C12" t="s">
         <v>65</v>
@@ -3924,10 +3977,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="B13" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C13" t="s">
         <v>65</v>
@@ -3938,10 +3991,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B14" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="C14" t="s">
         <v>66</v>
@@ -3955,10 +4008,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="B15" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="C15" t="s">
         <v>66</v>
@@ -3972,16 +4025,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="B16" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="C16" t="s">
         <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -3989,16 +4042,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="B17" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="C17" t="s">
         <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -4006,16 +4059,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="B18" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="C18" t="s">
         <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -4023,16 +4076,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="B19" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="C19" t="s">
         <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -4040,16 +4093,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="B20" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="C20" t="s">
         <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -4057,10 +4110,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="B21" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
@@ -4074,16 +4127,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="B22" t="s">
+        <v>493</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
         <v>504</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" t="s">
-        <v>516</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -4091,10 +4144,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="B23" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C23" t="s">
         <v>65</v>
@@ -4129,8 +4182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J36"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4138,8 +4191,8 @@
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -4204,7 +4257,7 @@
         <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -4223,6 +4276,9 @@
       <c r="C4" t="s">
         <v>65</v>
       </c>
+      <c r="E4" t="s">
+        <v>522</v>
+      </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
@@ -4237,16 +4293,19 @@
       <c r="C5" t="s">
         <v>65</v>
       </c>
+      <c r="E5" t="s">
+        <v>522</v>
+      </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="B6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C6" t="s">
         <v>67</v>
@@ -4255,15 +4314,15 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="B7" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="C7" t="s">
         <v>67</v>
@@ -4272,321 +4331,321 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="B8" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E8" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B9" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C9" t="s">
         <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E10" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B11" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E11" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B12" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E12" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="B13" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E13" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B14" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E14" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B15" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E15" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B16" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E16" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B17" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C17" t="s">
         <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B18" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C18" t="s">
         <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B19" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E19" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B20" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E20" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B21" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E21" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B22" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C22" t="s">
         <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="B23" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="C23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E23" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -4594,10 +4653,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="B24" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="C24" t="s">
         <v>66</v>
@@ -4611,16 +4670,16 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="B25" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="C25" t="s">
         <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -4628,16 +4687,16 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="B26" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="C26" t="s">
         <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -4645,10 +4704,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="B27" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="C27" t="s">
         <v>66</v>
@@ -4662,16 +4721,16 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="B28" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="C28" t="s">
         <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -4679,10 +4738,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="B29" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="C29" t="s">
         <v>66</v>
@@ -4696,10 +4755,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="B30" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="C30" t="s">
         <v>65</v>
@@ -4710,10 +4769,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="B31" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="C31" t="s">
         <v>66</v>
@@ -4727,10 +4786,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B32" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="C32" t="s">
         <v>66</v>
@@ -4744,10 +4803,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="B33" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="C33" t="s">
         <v>66</v>
@@ -4761,10 +4820,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="B34" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C34" t="s">
         <v>66</v>
@@ -4778,10 +4837,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B35" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C35" t="s">
         <v>66</v>
@@ -4885,16 +4944,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -4902,10 +4961,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="B4" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="C4" t="s">
         <v>101</v>
@@ -4930,10 +4989,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="B6" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
@@ -4947,16 +5006,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -5054,10 +5113,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="B3" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -5068,10 +5127,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -5085,10 +5144,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="B5" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
@@ -5102,10 +5161,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="B6" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="C6" t="s">
         <v>67</v>
@@ -5116,10 +5175,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="B7" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
@@ -5133,10 +5192,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="B8" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
@@ -5223,10 +5282,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="B2" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="C2" t="s">
         <v>101</v>
@@ -5251,10 +5310,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="B4" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -5263,24 +5322,24 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="B5" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="E5" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5288,56 +5347,56 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="B6" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="E6" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="B7" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="E7" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="B8" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="C8" t="s">
         <v>67</v>
@@ -5373,7 +5432,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5437,10 +5496,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="B3" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -5449,24 +5508,24 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="B4" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>586</v>
+        <v>736</v>
       </c>
       <c r="E4" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -5474,25 +5533,25 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="B5" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="E5" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -5522,7 +5581,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5587,10 +5646,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="B3" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -5601,16 +5660,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B4" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="C4" t="s">
         <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -5618,62 +5677,62 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="B5" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="E5" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="B6" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="E6" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="B7" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="C7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E7" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -5681,24 +5740,27 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="B8" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
       </c>
+      <c r="E8" t="s">
+        <v>560</v>
+      </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="B9" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
@@ -5737,16 +5799,16 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E10" sqref="E10:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -5788,16 +5850,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="B2" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5819,10 +5881,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="B4" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -5831,15 +5893,15 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="B5" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="C5" t="s">
         <v>101</v>
@@ -5850,39 +5912,39 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="B6" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E6" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="B7" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="E7" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -5890,39 +5952,39 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="B8" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="C8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E8" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="B9" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="E9" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -5930,19 +5992,19 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="B10" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="E10" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -5950,30 +6012,36 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="B11" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="C11" t="s">
         <v>65</v>
       </c>
+      <c r="E11" t="s">
+        <v>560</v>
+      </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="B12" t="s">
-        <v>621</v>
+        <v>739</v>
       </c>
       <c r="C12" t="s">
         <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>624</v>
+        <v>737</v>
+      </c>
+      <c r="E12" t="s">
+        <v>560</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -5981,16 +6049,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="B13" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="C13" t="s">
         <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>627</v>
+        <v>738</v>
+      </c>
+      <c r="E13" t="s">
+        <v>560</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -5998,13 +6069,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="B14" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="C14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -6036,14 +6107,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -6102,58 +6173,70 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="B3" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
       </c>
+      <c r="E3" t="s">
+        <v>618</v>
+      </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="B4" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="C4" t="s">
         <v>101</v>
       </c>
+      <c r="E4" t="s">
+        <v>618</v>
+      </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="B5" t="s">
-        <v>635</v>
+        <v>740</v>
       </c>
       <c r="C5" t="s">
         <v>101</v>
       </c>
+      <c r="E5" t="s">
+        <v>618</v>
+      </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="B6" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>323</v>
+        <v>741</v>
+      </c>
+      <c r="E6" t="s">
+        <v>618</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -6186,21 +6269,21 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6313,6 +6396,9 @@
       <c r="C6" t="s">
         <v>65</v>
       </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
@@ -6327,6 +6413,9 @@
       <c r="C7" t="s">
         <v>65</v>
       </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
@@ -6341,6 +6430,9 @@
       <c r="C8" t="s">
         <v>65</v>
       </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
@@ -6385,6 +6477,9 @@
       </c>
       <c r="D11" t="s">
         <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -6556,10 +6651,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="B3" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -6568,257 +6663,257 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="B4" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="E4" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="B5" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="E5" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="B6" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="E6" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="B7" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="E7" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="B8" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="E8" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="B9" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="C9" t="s">
         <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="E9" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="B10" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="C10" t="s">
         <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="E10" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="B11" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="C11" t="s">
         <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="E11" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="B12" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="C12" t="s">
         <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="E12" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="B13" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="C13" t="s">
         <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="E13" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="B14" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="C14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E14" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -6848,7 +6943,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6912,10 +7007,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="B3" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -6926,36 +7021,39 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B4" t="s">
-        <v>354</v>
+        <v>722</v>
       </c>
       <c r="C4" t="s">
         <v>101</v>
       </c>
+      <c r="E4" t="s">
+        <v>560</v>
+      </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="B5" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E5" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -7022,10 +7120,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="B2" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="C2" t="s">
         <v>65</v>
@@ -7036,10 +7134,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="B3" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="C3" t="s">
         <v>65</v>
@@ -7050,16 +7148,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="B4" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -7067,10 +7165,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="B5" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
@@ -7081,10 +7179,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="B6" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
@@ -7095,10 +7193,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="B7" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
@@ -7116,8 +7214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7168,10 +7266,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>688</v>
+        <v>670</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -7193,13 +7291,16 @@
         <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>354</v>
+        <v>722</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>681</v>
+        <v>665</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -7219,7 +7320,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>737</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -7261,13 +7362,13 @@
         <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>690</v>
+        <v>672</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -7287,7 +7388,7 @@
         <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -7298,13 +7399,13 @@
         <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>691</v>
+        <v>673</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -7315,7 +7416,7 @@
         <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>687</v>
+        <v>721</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
@@ -7324,7 +7425,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -7335,13 +7436,13 @@
         <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>692</v>
+        <v>674</v>
       </c>
       <c r="C11" t="s">
         <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -7361,7 +7462,7 @@
         <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -7372,13 +7473,13 @@
         <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>693</v>
+        <v>675</v>
       </c>
       <c r="C13" t="s">
         <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -7398,7 +7499,7 @@
         <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -7409,13 +7510,13 @@
         <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>694</v>
+        <v>676</v>
       </c>
       <c r="C15" t="s">
         <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -7435,7 +7536,7 @@
         <v>175</v>
       </c>
       <c r="E16" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -7446,13 +7547,13 @@
         <v>121</v>
       </c>
       <c r="B17" t="s">
-        <v>695</v>
+        <v>677</v>
       </c>
       <c r="C17" t="s">
         <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -7472,7 +7573,7 @@
         <v>175</v>
       </c>
       <c r="E18" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -7483,13 +7584,13 @@
         <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>696</v>
+        <v>678</v>
       </c>
       <c r="C19" t="s">
         <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -7509,7 +7610,7 @@
         <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -7520,13 +7621,13 @@
         <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>697</v>
+        <v>679</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -7546,7 +7647,7 @@
         <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -7557,13 +7658,13 @@
         <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>698</v>
+        <v>680</v>
       </c>
       <c r="C23" t="s">
         <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -7583,7 +7684,7 @@
         <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -7594,13 +7695,13 @@
         <v>129</v>
       </c>
       <c r="B25" t="s">
-        <v>699</v>
+        <v>681</v>
       </c>
       <c r="C25" t="s">
         <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -7620,7 +7721,7 @@
         <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -7631,13 +7732,13 @@
         <v>131</v>
       </c>
       <c r="B27" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="C27" t="s">
         <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -7657,7 +7758,7 @@
         <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -7668,13 +7769,13 @@
         <v>133</v>
       </c>
       <c r="B29" t="s">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="C29" t="s">
         <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -7694,7 +7795,7 @@
         <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -7705,13 +7806,13 @@
         <v>135</v>
       </c>
       <c r="B31" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
       <c r="C31" t="s">
         <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -7731,7 +7832,7 @@
         <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -7748,7 +7849,7 @@
         <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -7768,7 +7869,7 @@
         <v>175</v>
       </c>
       <c r="E34" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -7779,13 +7880,13 @@
         <v>139</v>
       </c>
       <c r="B35" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="C35" t="s">
         <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -7805,7 +7906,7 @@
         <v>175</v>
       </c>
       <c r="E36" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -7816,13 +7917,13 @@
         <v>141</v>
       </c>
       <c r="B37" t="s">
-        <v>704</v>
+        <v>686</v>
       </c>
       <c r="C37" t="s">
         <v>66</v>
       </c>
       <c r="D37" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -7991,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
       <c r="C48" t="s">
         <v>67</v>
@@ -8002,10 +8103,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B49" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C49" t="s">
         <v>67</v>
@@ -8014,10 +8115,10 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>107</v>
+        <v>723</v>
       </c>
       <c r="L49" t="s">
         <v>89</v>
@@ -8043,15 +8144,15 @@
         <v>109</v>
       </c>
       <c r="I50" t="s">
-        <v>737</v>
+        <v>719</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>738</v>
+        <v>720</v>
       </c>
       <c r="B51" t="s">
-        <v>738</v>
+        <v>720</v>
       </c>
       <c r="C51" t="s">
         <v>67</v>
@@ -8060,10 +8161,10 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>737</v>
+        <v>719</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="L51" t="s">
         <v>89</v>
@@ -8071,10 +8172,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="B52" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="C52" t="s">
         <v>67</v>
@@ -8083,7 +8184,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="L52" t="s">
         <v>89</v>
@@ -8091,10 +8192,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="B53" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="C53" t="s">
         <v>67</v>
@@ -8103,7 +8204,7 @@
         <v>1</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
       <c r="L53" t="s">
         <v>89</v>
@@ -8111,10 +8212,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="B54" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="C54" t="s">
         <v>67</v>
@@ -8123,7 +8224,7 @@
         <v>1</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="L54" t="s">
         <v>89</v>
@@ -8131,10 +8232,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="B55" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="C55" t="s">
         <v>67</v>
@@ -8143,7 +8244,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
       <c r="L55" t="s">
         <v>89</v>
@@ -8151,10 +8252,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="B56" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="C56" t="s">
         <v>67</v>
@@ -8163,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="L56" t="s">
         <v>89</v>
@@ -8171,10 +8272,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="B57" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="C57" t="s">
         <v>67</v>
@@ -8183,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="L57" t="s">
         <v>89</v>
@@ -8191,10 +8292,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="B58" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="C58" t="s">
         <v>67</v>
@@ -8203,7 +8304,7 @@
         <v>1</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>727</v>
+        <v>709</v>
       </c>
       <c r="L58" t="s">
         <v>89</v>
@@ -8211,10 +8312,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="B59" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="C59" t="s">
         <v>67</v>
@@ -8223,7 +8324,7 @@
         <v>1</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>728</v>
+        <v>710</v>
       </c>
       <c r="L59" t="s">
         <v>89</v>
@@ -8231,10 +8332,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="B60" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -8243,7 +8344,7 @@
         <v>1</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>729</v>
+        <v>711</v>
       </c>
       <c r="L60" t="s">
         <v>89</v>
@@ -8251,10 +8352,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="B61" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="C61" t="s">
         <v>67</v>
@@ -8263,7 +8364,7 @@
         <v>1</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>730</v>
+        <v>712</v>
       </c>
       <c r="L61" t="s">
         <v>89</v>
@@ -8271,10 +8372,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="B62" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="C62" t="s">
         <v>67</v>
@@ -8283,7 +8384,7 @@
         <v>1</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>731</v>
+        <v>713</v>
       </c>
       <c r="L62" t="s">
         <v>89</v>
@@ -8291,10 +8392,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="B63" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="C63" t="s">
         <v>67</v>
@@ -8303,7 +8404,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="L63" t="s">
         <v>89</v>
@@ -8311,10 +8412,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="B64" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="C64" t="s">
         <v>67</v>
@@ -8323,7 +8424,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>733</v>
+        <v>715</v>
       </c>
       <c r="L64" t="s">
         <v>89</v>
@@ -8331,10 +8432,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="B65" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="C65" t="s">
         <v>67</v>
@@ -8343,7 +8444,7 @@
         <v>1</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="L65" t="s">
         <v>89</v>
@@ -8351,10 +8452,10 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
       <c r="B66" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
       <c r="C66" t="s">
         <v>67</v>
@@ -8363,7 +8464,7 @@
         <v>1</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
       <c r="L66" t="s">
         <v>89</v>
@@ -8391,6 +8492,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8399,7 +8501,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD42"/>
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8408,7 +8510,7 @@
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -8449,7 +8551,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -8474,7 +8576,7 @@
         <v>215</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E3" t="s">
         <v>89</v>
@@ -8483,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -8503,7 +8605,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -8523,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8543,7 +8645,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -8563,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -8574,7 +8676,7 @@
         <v>220</v>
       </c>
       <c r="C8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E8" t="s">
         <v>89</v>
@@ -8583,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -8603,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -8636,6 +8738,9 @@
       <c r="C11" t="s">
         <v>65</v>
       </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
@@ -8670,6 +8775,9 @@
       <c r="C13" t="s">
         <v>66</v>
       </c>
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
@@ -8859,10 +8967,13 @@
         <v>198</v>
       </c>
       <c r="B23" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="C23" t="s">
         <v>66</v>
+      </c>
+      <c r="E23" t="s">
+        <v>89</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -8873,13 +8984,13 @@
         <v>199</v>
       </c>
       <c r="B24" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="C24" t="s">
         <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="E24" t="s">
         <v>89</v>
@@ -8888,24 +8999,27 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" t="s">
-        <v>684</v>
+      <c r="C25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -8948,18 +9062,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" t="b">
-        <v>0</v>
+      <c r="C28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -8982,18 +9099,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" t="b">
-        <v>0</v>
+      <c r="C30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -9021,13 +9144,16 @@
         <v>207</v>
       </c>
       <c r="B32" t="s">
-        <v>241</v>
+        <v>724</v>
       </c>
       <c r="C32" t="s">
         <v>66</v>
       </c>
       <c r="D32" t="s">
         <v>68</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -9038,7 +9164,7 @@
         <v>208</v>
       </c>
       <c r="B33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C33" t="s">
         <v>66</v>
@@ -9058,7 +9184,7 @@
         <v>209</v>
       </c>
       <c r="B34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C34" t="s">
         <v>66</v>
@@ -9068,6 +9194,9 @@
       </c>
       <c r="F34" t="b">
         <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -9075,7 +9204,7 @@
         <v>210</v>
       </c>
       <c r="B35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C35" t="s">
         <v>66</v>
@@ -9085,6 +9214,9 @@
       </c>
       <c r="F35" t="b">
         <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -9092,44 +9224,56 @@
         <v>211</v>
       </c>
       <c r="B36" t="s">
+        <v>725</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" t="s">
+        <v>669</v>
+      </c>
+      <c r="E36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" t="s">
-        <v>250</v>
-      </c>
-      <c r="F36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>212</v>
-      </c>
-      <c r="B37" t="s">
-        <v>246</v>
-      </c>
-      <c r="C37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>213</v>
-      </c>
-      <c r="B38" t="s">
-        <v>247</v>
-      </c>
-      <c r="C38" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" t="b">
-        <v>0</v>
+      <c r="C38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -9137,10 +9281,13 @@
         <v>214</v>
       </c>
       <c r="B39" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C39" t="s">
         <v>65</v>
+      </c>
+      <c r="E39" t="s">
+        <v>89</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -9183,7 +9330,7 @@
         <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
       <c r="C42" t="s">
         <v>67</v>
@@ -9223,7 +9370,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9288,10 +9435,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="C3" t="s">
         <v>65</v>
@@ -9302,10 +9449,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -9319,16 +9466,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -9336,10 +9483,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C6" t="s">
         <v>67</v>
@@ -9348,15 +9495,15 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
@@ -9370,10 +9517,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B8" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -9387,16 +9534,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -9404,10 +9551,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
@@ -9421,10 +9568,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C11" t="s">
         <v>66</v>
@@ -9438,10 +9585,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B12" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C12" t="s">
         <v>66</v>
@@ -9455,10 +9602,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B13" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C13" t="s">
         <v>66</v>
@@ -9472,10 +9619,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B14" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C14" t="s">
         <v>66</v>
@@ -9489,10 +9636,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B15" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C15" t="s">
         <v>66</v>
@@ -9506,10 +9653,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B16" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C16" t="s">
         <v>67</v>
@@ -9520,10 +9667,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C17" t="s">
         <v>65</v>
@@ -9534,19 +9681,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B18" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C18" t="s">
         <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E18" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -9554,10 +9701,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B19" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C19" t="s">
         <v>67</v>
@@ -9566,15 +9713,15 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B20" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C20" t="s">
         <v>66</v>
@@ -9588,10 +9735,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
@@ -9605,10 +9752,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B22" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C22" t="s">
         <v>66</v>
@@ -9712,16 +9859,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -9729,10 +9876,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -9741,15 +9888,15 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
@@ -9763,10 +9910,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C6" t="s">
         <v>67</v>
@@ -9777,10 +9924,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
@@ -9794,16 +9941,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -9811,16 +9958,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B9" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -9831,7 +9978,7 @@
         <v>214</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C10" t="s">
         <v>65</v>
@@ -9842,10 +9989,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B11" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C11" t="s">
         <v>65</v>
@@ -9856,10 +10003,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B12" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C12" t="s">
         <v>65</v>
@@ -9870,10 +10017,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B13" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C13" t="s">
         <v>65</v>
@@ -9884,10 +10031,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B14" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C14" t="s">
         <v>65</v>
@@ -9898,10 +10045,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B15" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C15" t="s">
         <v>65</v>
@@ -9934,27 +10081,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J49"/>
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9985,8 +10132,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -10000,12 +10150,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C3" t="s">
         <v>65</v>
@@ -10014,12 +10164,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -10028,43 +10178,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B5" t="s">
-        <v>354</v>
+        <v>722</v>
       </c>
       <c r="C5" t="s">
         <v>101</v>
       </c>
+      <c r="E5" t="s">
+        <v>347</v>
+      </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B6" t="s">
         <v>215</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E6" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B7" t="s">
         <v>219</v>
@@ -10073,16 +10226,16 @@
         <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -10096,15 +10249,15 @@
         <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B9" t="s">
         <v>218</v>
@@ -10113,16 +10266,16 @@
         <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>180</v>
       </c>
@@ -10133,16 +10286,16 @@
         <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>181</v>
       </c>
@@ -10153,38 +10306,38 @@
         <v>101</v>
       </c>
       <c r="E11" t="s">
+        <v>347</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>330</v>
+      </c>
+      <c r="B13" t="s">
         <v>351</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>333</v>
-      </c>
-      <c r="B12" t="s">
-        <v>355</v>
-      </c>
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>334</v>
-      </c>
-      <c r="B13" t="s">
-        <v>356</v>
       </c>
       <c r="C13" t="s">
         <v>66</v>
@@ -10193,18 +10346,18 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>187</v>
       </c>
       <c r="B14" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C14" t="s">
         <v>66</v>
@@ -10213,13 +10366,13 @@
         <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -10233,15 +10386,15 @@
         <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B16" t="s">
         <v>165</v>
@@ -10249,16 +10402,19 @@
       <c r="C16" t="s">
         <v>65</v>
       </c>
+      <c r="E16" t="s">
+        <v>347</v>
+      </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B17" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C17" t="s">
         <v>66</v>
@@ -10267,7 +10423,7 @@
         <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -10287,7 +10443,7 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -10307,7 +10463,7 @@
         <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -10327,7 +10483,7 @@
         <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -10347,7 +10503,7 @@
         <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -10367,7 +10523,7 @@
         <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -10387,7 +10543,7 @@
         <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -10407,7 +10563,7 @@
         <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -10415,7 +10571,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B25" t="s">
         <v>232</v>
@@ -10427,7 +10583,7 @@
         <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -10443,22 +10599,25 @@
       <c r="C26" t="s">
         <v>65</v>
       </c>
+      <c r="E26" t="s">
+        <v>347</v>
+      </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B27" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C27" t="s">
         <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -10466,7 +10625,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B28" t="s">
         <v>166</v>
@@ -10478,7 +10637,7 @@
         <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -10486,10 +10645,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B29" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C29" t="s">
         <v>66</v>
@@ -10497,19 +10656,25 @@
       <c r="D29" t="s">
         <v>75</v>
       </c>
+      <c r="E29" t="s">
+        <v>347</v>
+      </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B30" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C30" t="s">
         <v>66</v>
+      </c>
+      <c r="E30" t="s">
+        <v>347</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -10517,10 +10682,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B31" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C31" t="s">
         <v>66</v>
@@ -10528,25 +10693,31 @@
       <c r="D31" t="s">
         <v>75</v>
       </c>
+      <c r="E31" t="s">
+        <v>347</v>
+      </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B32" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C32" t="s">
         <v>65</v>
       </c>
+      <c r="E32" t="s">
+        <v>347</v>
+      </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>118</v>
       </c>
@@ -10560,30 +10731,30 @@
         <v>75</v>
       </c>
       <c r="E33" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B34" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C34" t="s">
         <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>120</v>
       </c>
@@ -10597,30 +10768,30 @@
         <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B36" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C36" t="s">
         <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>122</v>
       </c>
@@ -10634,30 +10805,30 @@
         <v>175</v>
       </c>
       <c r="E37" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B38" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C38" t="s">
         <v>66</v>
       </c>
       <c r="E38" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>189</v>
       </c>
@@ -10671,35 +10842,35 @@
         <v>75</v>
       </c>
       <c r="E39" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>343</v>
+      </c>
+      <c r="B40" t="s">
+        <v>362</v>
+      </c>
+      <c r="C40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" t="s">
         <v>347</v>
       </c>
-      <c r="B40" t="s">
-        <v>367</v>
-      </c>
-      <c r="C40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" t="s">
-        <v>351</v>
-      </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>208</v>
       </c>
       <c r="B41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C41" t="s">
         <v>66</v>
@@ -10708,98 +10879,119 @@
         <v>75</v>
       </c>
       <c r="E41" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C42" t="s">
         <v>66</v>
       </c>
       <c r="E42" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>209</v>
       </c>
       <c r="B43" t="s">
+        <v>242</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" t="s">
+        <v>347</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C43" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" t="s">
-        <v>351</v>
-      </c>
-      <c r="F43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>210</v>
-      </c>
-      <c r="B44" t="s">
-        <v>369</v>
-      </c>
-      <c r="C44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" t="s">
-        <v>372</v>
-      </c>
-      <c r="F44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>349</v>
-      </c>
-      <c r="B45" t="s">
-        <v>370</v>
-      </c>
-      <c r="C45" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" t="s">
-        <v>250</v>
-      </c>
-      <c r="F45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>350</v>
-      </c>
-      <c r="B46" t="s">
-        <v>371</v>
-      </c>
-      <c r="C46" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" t="s">
-        <v>250</v>
-      </c>
-      <c r="F46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="F44" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="F45" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="F46" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -10813,7 +11005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -10832,10 +11024,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B49" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C49" t="s">
         <v>67</v>
@@ -10844,10 +11036,10 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H49" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -10860,7 +11052,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J23"/>
+      <selection activeCell="E21" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10869,7 +11061,7 @@
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -10925,10 +11117,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -10937,355 +11129,358 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B4" t="s">
-        <v>354</v>
+        <v>722</v>
       </c>
       <c r="C4" t="s">
         <v>101</v>
       </c>
+      <c r="E4" t="s">
+        <v>347</v>
+      </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B5" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B6" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E6" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C7" t="s">
         <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B8" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E8" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B9" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E9" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B10" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E10" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B11" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E11" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B12" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E12" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B13" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E13" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B14" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E14" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B15" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C15" t="s">
         <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B16" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C16" t="s">
         <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B17" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E17" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B18" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E18" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B19" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E19" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B20" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C20" t="s">
         <v>101</v>
       </c>
       <c r="E20" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B21" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C21" t="s">
         <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -11293,16 +11488,16 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B22" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C22" t="s">
         <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -11335,7 +11530,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11400,10 +11595,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -11412,21 +11607,24 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B4" t="s">
-        <v>354</v>
+        <v>722</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>426</v>
+        <v>730</v>
+      </c>
+      <c r="E4" t="s">
+        <v>349</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -11437,7 +11635,7 @@
         <v>208</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
@@ -11446,7 +11644,7 @@
         <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -11466,7 +11664,7 @@
         <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -11474,16 +11672,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B7" t="s">
-        <v>421</v>
+        <v>732</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>427</v>
+        <v>731</v>
+      </c>
+      <c r="E7" t="s">
+        <v>349</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -11491,10 +11692,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B8" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -11503,7 +11704,7 @@
         <v>175</v>
       </c>
       <c r="E8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -11511,10 +11712,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B9" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
@@ -11523,7 +11724,7 @@
         <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -11531,10 +11732,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B10" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
@@ -11543,7 +11744,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -11551,10 +11752,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B11" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C11" t="s">
         <v>65</v>

--- a/examples/oucru/oucru-06dx/resources/outputs/templates/ccfgs_06dx_data_fixed.xlsx
+++ b/examples/oucru/oucru-06dx/resources/outputs/templates/ccfgs_06dx_data_fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-06dx\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B348A1F-BE68-4B2E-91A3-32418888CFA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EB4B6D-CA91-4A66-9AD6-EE50B4E94196}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25530" yWindow="1260" windowWidth="20325" windowHeight="16470" firstSheet="1" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25650" yWindow="825" windowWidth="23730" windowHeight="16470" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCR" sheetId="1" r:id="rId1"/>
@@ -2268,9 +2268,6 @@
     <t>{1: 1, 2: 2, 3: 3}</t>
   </si>
   <si>
-    <t>{2: 3, 1: 1, 3: 3}</t>
-  </si>
-  <si>
     <t>indirect_elisa_result</t>
   </si>
   <si>
@@ -2278,6 +2275,9 @@
   </si>
   <si>
     <t>{1: 'Placebo - Low Dose', 2: 'Placebo - High Dose', 3: 'Steroids - Low Dose', 4: 'Steroids - High Dose'}</t>
+  </si>
+  <si>
+    <t>{2: False, 1: True, 3: None}</t>
   </si>
 </sst>
 </file>
@@ -3754,7 +3754,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5581,7 +5581,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5798,8 +5798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6032,7 +6032,7 @@
         <v>599</v>
       </c>
       <c r="B12" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C12" t="s">
         <v>66</v>
@@ -6058,7 +6058,7 @@
         <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="E13" t="s">
         <v>560</v>
@@ -6107,8 +6107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6210,7 +6210,7 @@
         <v>616</v>
       </c>
       <c r="B5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C5" t="s">
         <v>101</v>
@@ -6233,7 +6233,7 @@
         <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E6" t="s">
         <v>618</v>
@@ -8500,8 +8500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/examples/oucru/oucru-06dx/resources/outputs/templates/ccfgs_06dx_data_fixed.xlsx
+++ b/examples/oucru/oucru-06dx/resources/outputs/templates/ccfgs_06dx_data_fixed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-06dx\resources\outputs\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbit/Desktop/repositories/github/datablend/main/examples/oucru/oucru-06dx/resources/outputs/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EB4B6D-CA91-4A66-9AD6-EE50B4E94196}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E076520-9714-DE48-9B93-5BCE695768AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25650" yWindow="825" windowWidth="23730" windowHeight="16470" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="35000" windowHeight="21940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCR" sheetId="1" r:id="rId1"/>
@@ -2717,21 +2717,21 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3260,21 +3260,21 @@
       <selection activeCell="K20" sqref="K20:K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>324</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>325</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>419</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>420</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>421</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>422</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>423</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>424</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>425</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>426</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>427</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>428</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>429</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>430</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>431</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>432</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>433</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>434</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>435</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>436</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>437</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -3757,21 +3757,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="90.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>461</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>184</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>324</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>325</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>419</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>462</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>463</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>464</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>465</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>466</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>467</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>468</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>469</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>470</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>471</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>472</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>473</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>474</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>475</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>476</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>477</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -4186,21 +4186,21 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>505</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>506</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>507</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>368</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>369</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>370</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>371</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>508</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>373</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>374</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>375</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>376</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>377</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>378</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>379</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>380</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>381</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>509</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>510</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>511</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>512</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>513</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>514</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>515</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>516</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>517</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>518</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>519</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>520</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>521</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -4882,21 +4882,21 @@
       <selection sqref="A1:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>540</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>541</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>542</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>303</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -5051,21 +5051,21 @@
       <selection sqref="A1:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>506</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>297</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>545</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>546</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>547</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>548</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -5234,21 +5234,21 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>554</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>555</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>556</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>557</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>558</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>559</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -5435,20 +5435,20 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>569</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>570</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>571</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -5584,21 +5584,21 @@
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>569</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>577</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>578</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>579</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>580</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>581</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>582</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -5798,25 +5798,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>554</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>569</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>592</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>593</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>594</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>595</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>596</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>597</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>598</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>599</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>600</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>601</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -6111,21 +6111,21 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>614</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>615</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>616</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>617</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -6272,21 +6272,21 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -6589,21 +6589,21 @@
       <selection sqref="A1:J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>569</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>621</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>622</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>623</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>624</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>625</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>626</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>627</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>628</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>629</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>630</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>631</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -6946,20 +6946,20 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>569</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>325</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>646</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -7084,9 +7084,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>649</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>650</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>651</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>652</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>653</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>654</v>
       </c>
@@ -7214,27 +7214,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>111</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>115</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>117</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>118</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>120</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>121</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>122</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>123</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>124</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>125</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>126</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>127</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>128</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>129</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>131</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>132</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>133</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>135</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>137</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>139</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>140</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>141</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>142</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>143</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>144</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>145</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>146</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>147</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>148</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>83</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>309</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>149</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>720</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>688</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>689</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>690</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>691</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>692</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>693</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>694</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>695</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>696</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>697</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>698</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>699</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>703</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>700</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>701</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>89</v>
       </c>
@@ -8504,22 +8504,22 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>179</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>180</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>181</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>183</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>184</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>185</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>186</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>187</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>188</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>189</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>190</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>191</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>192</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>193</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>194</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>195</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>196</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>197</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>198</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>199</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>200</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>201</v>
       </c>
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>202</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>203</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>204</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>205</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>206</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>207</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>209</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>210</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>211</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>212</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>213</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>214</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -9325,7 +9325,7 @@
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -9340,7 +9340,7 @@
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -9373,21 +9373,21 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>254</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>255</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>256</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>257</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>258</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>259</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>260</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>261</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>262</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>263</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>264</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>265</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>266</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>267</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>268</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>269</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>270</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>271</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>272</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>273</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -9797,21 +9797,21 @@
       <selection sqref="A1:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>297</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>298</v>
       </c>
@@ -9891,7 +9891,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>299</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>300</v>
       </c>
@@ -9922,7 +9922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>301</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>302</v>
       </c>
@@ -9956,7 +9956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>303</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>214</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>304</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>305</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>306</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>269</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>307</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -10087,21 +10087,21 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>323</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>324</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>325</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>326</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>327</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>328</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>180</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>181</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>329</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>330</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>187</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>331</v>
       </c>
@@ -10409,7 +10409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>332</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>190</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>193</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>194</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>196</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>333</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>198</v>
       </c>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>334</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>335</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>336</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>337</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>338</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>339</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>118</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>340</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>120</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>341</v>
       </c>
@@ -10791,7 +10791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>122</v>
       </c>
@@ -10811,7 +10811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>342</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>189</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>343</v>
       </c>
@@ -10865,7 +10865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>208</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>344</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>209</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>210</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>345</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>346</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>347</v>
       </c>
@@ -11055,21 +11055,21 @@
       <selection activeCell="E21" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11101,7 +11101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>324</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>325</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>366</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>367</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>368</v>
       </c>
@@ -11209,7 +11209,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>369</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>370</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>371</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>372</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>373</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>374</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>375</v>
       </c>
@@ -11349,7 +11349,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>376</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>377</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>378</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>379</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>380</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>381</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>382</v>
       </c>
@@ -11486,7 +11486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>383</v>
       </c>
@@ -11503,7 +11503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -11533,21 +11533,21 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>324</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>325</v>
       </c>
@@ -11630,7 +11630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>208</v>
       </c>
@@ -11650,7 +11650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>202</v>
       </c>
@@ -11670,7 +11670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>409</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>410</v>
       </c>
@@ -11710,7 +11710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>411</v>
       </c>
@@ -11730,7 +11730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>412</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>413</v>
       </c>
@@ -11764,7 +11764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>37</v>
       </c>

--- a/examples/oucru/oucru-06dx/resources/outputs/templates/ccfgs_06dx_data_fixed.xlsx
+++ b/examples/oucru/oucru-06dx/resources/outputs/templates/ccfgs_06dx_data_fixed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbit/Desktop/repositories/github/datablend/main/examples/oucru/oucru-06dx/resources/outputs/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E076520-9714-DE48-9B93-5BCE695768AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD267889-2979-D14E-8EA6-A8FED5E27153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="35000" windowHeight="21940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="35000" windowHeight="21940" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCR" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="743">
   <si>
     <t>from_name</t>
   </si>
@@ -2278,6 +2278,9 @@
   </si>
   <si>
     <t>{2: False, 1: True, 3: None}</t>
+  </si>
+  <si>
+    <t>event_shock</t>
   </si>
 </sst>
 </file>
@@ -7214,7 +7217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
@@ -10083,8 +10086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10097,7 +10100,7 @@
     <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10350,6 +10353,9 @@
       </c>
       <c r="F13" t="b">
         <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
